--- a/output7/【河洛白話注音-閩拼調號】《蘭亭集序》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《蘭亭集序》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3094FCA2-FD7A-4724-A419-9620B6BD2429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4117E9-3130-4847-8AE4-D03990F1FB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="1888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4592" uniqueCount="2112">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5081,1114 +5081,2066 @@
     <t>致</t>
   </si>
   <si>
+    <t>kau2</t>
+  </si>
+  <si>
+    <t>ni5</t>
+  </si>
+  <si>
+    <t>ti7</t>
+  </si>
+  <si>
+    <t>kui2</t>
+  </si>
+  <si>
+    <t>thiu2</t>
+  </si>
+  <si>
+    <t>coo1</t>
+  </si>
+  <si>
+    <t>e7</t>
+  </si>
+  <si>
+    <t>khe1</t>
+  </si>
+  <si>
+    <t>im1</t>
+  </si>
+  <si>
+    <t>khiat4</t>
+  </si>
+  <si>
+    <t>kun5</t>
+  </si>
+  <si>
+    <t>zio2</t>
+  </si>
+  <si>
+    <t>tiunn2</t>
+  </si>
+  <si>
+    <t>te7</t>
+  </si>
+  <si>
+    <t>u7</t>
+  </si>
+  <si>
+    <t>zong5</t>
+  </si>
+  <si>
+    <t>zun3</t>
+  </si>
+  <si>
+    <t>iu7</t>
+  </si>
+  <si>
+    <t>cinn1</t>
+  </si>
+  <si>
+    <t>kik4</t>
+  </si>
+  <si>
+    <t>thuan1</t>
+  </si>
+  <si>
+    <t>iann3</t>
+  </si>
+  <si>
+    <t>tua3</t>
+  </si>
+  <si>
+    <t>zo2</t>
+  </si>
+  <si>
+    <t>in2</t>
+  </si>
+  <si>
+    <t>ui7</t>
+  </si>
+  <si>
+    <t>siong1</t>
+  </si>
+  <si>
+    <t>khiau1</t>
+  </si>
+  <si>
+    <t>zui2</t>
+  </si>
+  <si>
+    <t>liat8</t>
+  </si>
+  <si>
+    <t>ze7</t>
+  </si>
+  <si>
+    <t>kong2</t>
+  </si>
+  <si>
+    <t>sing7</t>
+  </si>
+  <si>
+    <t>ing7</t>
+  </si>
+  <si>
+    <t>ziok4</t>
+  </si>
+  <si>
+    <t>thiong3</t>
+  </si>
+  <si>
+    <t>su7</t>
+  </si>
+  <si>
+    <t>thinn1</t>
+  </si>
+  <si>
+    <t>long2</t>
+  </si>
+  <si>
+    <t>hui7</t>
+  </si>
+  <si>
+    <t>giong2</t>
+  </si>
+  <si>
+    <t>tiu7</t>
+  </si>
+  <si>
+    <t>tua7</t>
+  </si>
+  <si>
+    <t>hu2</t>
+  </si>
+  <si>
+    <t>cat4</t>
+  </si>
+  <si>
+    <t>phin2</t>
+  </si>
+  <si>
+    <t>lui7</t>
+  </si>
+  <si>
+    <t>soo2</t>
+  </si>
+  <si>
+    <t>phing3</t>
+  </si>
+  <si>
+    <t>sin3</t>
+  </si>
+  <si>
+    <t>kho2</t>
+  </si>
+  <si>
+    <t>loh8</t>
+  </si>
+  <si>
+    <t>lang5</t>
+  </si>
+  <si>
+    <t>gap4</t>
+  </si>
+  <si>
+    <t>se3</t>
+  </si>
+  <si>
+    <t>iah8</t>
+  </si>
+  <si>
+    <t>zu1</t>
+  </si>
+  <si>
+    <t>pho7</t>
+  </si>
+  <si>
+    <t>goo7</t>
+  </si>
+  <si>
+    <t>gan5</t>
+  </si>
+  <si>
+    <t>lai7</t>
+  </si>
+  <si>
+    <t>in1</t>
+  </si>
+  <si>
+    <t>kia3</t>
+  </si>
+  <si>
+    <t>thok4</t>
+  </si>
+  <si>
+    <t>pang3</t>
+  </si>
+  <si>
+    <t>hai5</t>
+  </si>
+  <si>
+    <t>gua7</t>
+  </si>
+  <si>
+    <t>sia2</t>
+  </si>
+  <si>
+    <t>so3</t>
+  </si>
+  <si>
+    <t>tng1</t>
+  </si>
+  <si>
+    <t>him1</t>
+  </si>
+  <si>
+    <t>zam3</t>
+  </si>
+  <si>
+    <t>tit4</t>
+  </si>
+  <si>
+    <t>ki7</t>
+  </si>
+  <si>
+    <t>iong3</t>
+  </si>
+  <si>
+    <t>zu7</t>
+  </si>
+  <si>
+    <t>lau7</t>
+  </si>
+  <si>
+    <t>ziang3</t>
+  </si>
+  <si>
+    <t>kip8</t>
+  </si>
+  <si>
+    <t>kuan7</t>
+  </si>
+  <si>
+    <t>khai3</t>
+  </si>
+  <si>
+    <t>he7</t>
+  </si>
+  <si>
+    <t>hiong3</t>
+  </si>
+  <si>
+    <t>kan1</t>
+  </si>
+  <si>
+    <t>tan5</t>
+  </si>
+  <si>
+    <t>jiah4</t>
+  </si>
+  <si>
+    <t>iau2</t>
+  </si>
+  <si>
+    <t>te2</t>
+  </si>
+  <si>
+    <t>hua3</t>
+  </si>
+  <si>
+    <t>ziong1</t>
+  </si>
+  <si>
+    <t>zin7</t>
+  </si>
+  <si>
+    <t>un5</t>
+  </si>
+  <si>
+    <t>si2</t>
+  </si>
+  <si>
+    <t>senn1</t>
+  </si>
+  <si>
+    <t>khi2</t>
+  </si>
+  <si>
+    <t>thiann3</t>
+  </si>
+  <si>
+    <t>mui2</t>
+  </si>
+  <si>
+    <t>na7</t>
+  </si>
+  <si>
+    <t>hah8</t>
+  </si>
+  <si>
+    <t>khue3</t>
+  </si>
+  <si>
+    <t>bi7</t>
+  </si>
+  <si>
+    <t>ju7</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>tan3</t>
+  </si>
+  <si>
+    <t>ze5</t>
+  </si>
+  <si>
+    <t>phinn5</t>
+  </si>
+  <si>
+    <t>au7</t>
+  </si>
+  <si>
+    <t>lok8</t>
+  </si>
+  <si>
+    <t>ti3</t>
+  </si>
+  <si>
     <t>ing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gao3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ni5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lni2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ti7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>di6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thiu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bboo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>coo1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>e6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khe1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ke1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snua1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>im1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ding2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khiat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bit7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zio2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zio3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiunn2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dniu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ham5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ham2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>de6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zun5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ling3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>na5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lna2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cni1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lao2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thuan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tuan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>in2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>in3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ui6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khiau1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kiao1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>liat8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ze7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ze6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sing6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ing7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ing6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ia6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>su6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lit8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thinn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tni1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>long2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>long3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hui6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>giong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ggiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>guan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>u3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tiu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>diu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dua6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cat4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cat7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lui7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lui6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>soo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phing3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ping5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gik8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thiann1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tnia1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ggu2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kho2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ko3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>loh8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>siunn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sniu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gap4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ggap7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>se5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zu1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pho7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>po6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>goo7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ggoo6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ggan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sik7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lai7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lai6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>in1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thok4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tok7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>long6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hing2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hai2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gua7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ggua6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sia2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sia3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bban6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zing6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>so3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>so5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dang2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dng1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>him1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ggu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zam5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tit4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dit7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ki7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lian2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zu7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lau7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lao6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziang3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziang5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gip8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gi5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kuan7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>guan6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khai3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kai5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>he7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>he6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hiong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hiong5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gan1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dan2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jiah4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zziah7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iau2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iao3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hong3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>te2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>de3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hua3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hua5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ziong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zin7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zin6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>goo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>un5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>si3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>senn1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sne1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khi2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>thiann3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tnia5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mui2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbnui3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lam3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>na7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lna6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hah8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>khue3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>kue5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bi7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbi6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>siong2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbun2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>do6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ju7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zzu6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>koo3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>tan3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dan5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ze5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ze2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>phinn5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pni2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bbong6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoh4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoh7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>au7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ao6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>gin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>bi1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>lok8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ti3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>di5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zia3</t>
-  </si>
-  <si>
-    <t>(5, 5); (37, 15)</t>
-  </si>
-  <si>
-    <t>(5, 15)</t>
-  </si>
-  <si>
-    <t>(5, 16); (9, 10); (25, 13); (41, 7); (41, 14); (45, 14); (57, 6); (61, 10); (65, 8); (73, 12); (77, 4); (77, 16); (81, 5); (81, 11); (85, 9); (101, 10); (105, 14); (113, 5); (113, 12); (121, 17)</t>
-  </si>
-  <si>
-    <t>(9, 4); (9, 6)</t>
-  </si>
-  <si>
-    <t>(9, 5); (69, 10); (69, 16); (89, 6); (105, 15); (125, 10)</t>
-  </si>
-  <si>
-    <t>(9, 7)</t>
-  </si>
-  <si>
-    <t>(9, 8); (13, 18)</t>
-  </si>
-  <si>
-    <t>(9, 11)</t>
-  </si>
-  <si>
-    <t>(9, 12)</t>
-  </si>
-  <si>
-    <t>(9, 14); (17, 9)</t>
-  </si>
-  <si>
-    <t>(9, 16); (77, 10); (117, 18)</t>
-  </si>
-  <si>
-    <t>(9, 17); (37, 6); (49, 5); (121, 14)</t>
-  </si>
-  <si>
-    <t>(13, 6)</t>
-  </si>
-  <si>
-    <t>(13, 7); (73, 14)</t>
-  </si>
-  <si>
-    <t>(13, 9)</t>
-  </si>
-  <si>
-    <t>(13, 11)</t>
-  </si>
-  <si>
-    <t>(13, 14)</t>
-  </si>
-  <si>
-    <t>(13, 16); (17, 13); (125, 8)</t>
-  </si>
-  <si>
-    <t>(17, 4)</t>
-  </si>
-  <si>
-    <t>(17, 7)</t>
-  </si>
-  <si>
-    <t>(17, 8)</t>
-  </si>
-  <si>
-    <t>(17, 10); (25, 10)</t>
-  </si>
-  <si>
-    <t>(17, 12)</t>
-  </si>
-  <si>
-    <t>(17, 14); (37, 11)</t>
-  </si>
-  <si>
-    <t>(17, 15); (21, 12)</t>
-  </si>
-  <si>
-    <t>(17, 17)</t>
-  </si>
-  <si>
-    <t>(21, 10); (29, 8); (41, 18); (45, 10); (85, 8); (121, 7)</t>
-  </si>
-  <si>
-    <t>(21, 11); (81, 15); (109, 8); (109, 15)</t>
-  </si>
-  <si>
-    <t>(21, 13); (25, 17)</t>
-  </si>
-  <si>
-    <t>(21, 14)</t>
-  </si>
-  <si>
-    <t>(21, 15)</t>
-  </si>
-  <si>
-    <t>(21, 17); (117, 5)</t>
-  </si>
-  <si>
-    <t>(21, 18)</t>
-  </si>
-  <si>
-    <t>(25, 4); (69, 8); (73, 17); (117, 11); (121, 11)</t>
-  </si>
-  <si>
-    <t>(25, 5)</t>
-  </si>
-  <si>
-    <t>(25, 7); (65, 11); (117, 15)</t>
-  </si>
-  <si>
-    <t>(25, 8)</t>
-  </si>
-  <si>
-    <t>(25, 9)</t>
-  </si>
-  <si>
-    <t>(25, 11)</t>
-  </si>
-  <si>
-    <t>(25, 12)</t>
-  </si>
-  <si>
-    <t>(25, 14); (41, 15)</t>
-  </si>
-  <si>
-    <t>(25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13)</t>
-  </si>
-  <si>
-    <t>(29, 4)</t>
-  </si>
-  <si>
-    <t>(29, 6); (89, 16); (113, 9); (125, 6)</t>
-  </si>
-  <si>
-    <t>(29, 7); (45, 9); (73, 7)</t>
-  </si>
-  <si>
-    <t>(29, 9); (37, 16)</t>
-  </si>
-  <si>
-    <t>(29, 10); (117, 6)</t>
-  </si>
-  <si>
-    <t>(29, 11)</t>
-  </si>
-  <si>
-    <t>(29, 12); (77, 8)</t>
-  </si>
-  <si>
-    <t>(37, 9)</t>
-  </si>
-  <si>
-    <t>(37, 10)</t>
-  </si>
-  <si>
-    <t>(37, 13)</t>
-  </si>
-  <si>
-    <t>(37, 14)</t>
-  </si>
-  <si>
-    <t>(37, 18); (57, 11); (81, 10)</t>
-  </si>
-  <si>
-    <t>(41, 4)</t>
-  </si>
-  <si>
-    <t>(41, 5)</t>
-  </si>
-  <si>
-    <t>(41, 6)</t>
-  </si>
-  <si>
-    <t>(41, 8); (89, 17)</t>
-  </si>
-  <si>
-    <t>(41, 10); (57, 10); (81, 9)</t>
-  </si>
-  <si>
-    <t>(41, 12)</t>
-  </si>
-  <si>
-    <t>(41, 13)</t>
-  </si>
-  <si>
-    <t>(41, 17); (61, 16); (69, 11); (73, 18); (81, 6); (117, 12); (121, 6)</t>
-  </si>
-  <si>
-    <t>(45, 4)</t>
-  </si>
-  <si>
-    <t>(45, 6)</t>
-  </si>
-  <si>
-    <t>(45, 7); (57, 18); (85, 11); (105, 16); (121, 9)</t>
-  </si>
-  <si>
-    <t>(45, 11)</t>
-  </si>
-  <si>
-    <t>(45, 12); (113, 6); (113, 13)</t>
-  </si>
-  <si>
-    <t>(45, 18)</t>
-  </si>
-  <si>
-    <t>(57, 4); (113, 17)</t>
-  </si>
-  <si>
-    <t>(57, 5); (89, 10); (101, 7); (117, 8)</t>
-  </si>
-  <si>
-    <t>(57, 7)</t>
-  </si>
-  <si>
-    <t>(57, 13); (117, 16)</t>
-  </si>
-  <si>
-    <t>(57, 15); (61, 13)</t>
-  </si>
-  <si>
-    <t>(57, 16); (65, 12)</t>
-  </si>
-  <si>
-    <t>(57, 17)</t>
-  </si>
-  <si>
-    <t>(61, 4)</t>
-  </si>
-  <si>
-    <t>(61, 9)</t>
-  </si>
-  <si>
-    <t>(61, 15)</t>
-  </si>
-  <si>
-    <t>(61, 17)</t>
-  </si>
-  <si>
-    <t>(65, 5)</t>
-  </si>
-  <si>
-    <t>(65, 9)</t>
-  </si>
-  <si>
-    <t>(65, 15); (117, 17)</t>
-  </si>
-  <si>
-    <t>(69, 4); (73, 9); (85, 5); (85, 7); (93, 7); (105, 5); (105, 11)</t>
-  </si>
-  <si>
-    <t>(69, 5)</t>
-  </si>
-  <si>
-    <t>(69, 9); (81, 7)</t>
-  </si>
-  <si>
-    <t>(69, 15)</t>
-  </si>
-  <si>
-    <t>(73, 4)</t>
-  </si>
-  <si>
-    <t>(73, 5)</t>
-  </si>
-  <si>
-    <t>(73, 10); (109, 4)</t>
-  </si>
-  <si>
-    <t>(73, 11)</t>
-  </si>
-  <si>
-    <t>(73, 13); (125, 7)</t>
-  </si>
-  <si>
-    <t>(73, 16)</t>
-  </si>
-  <si>
-    <t>(77, 9); (85, 16)</t>
-  </si>
-  <si>
-    <t>(77, 13); (101, 9); (125, 9)</t>
-  </si>
-  <si>
-    <t>(77, 17); (89, 18)</t>
-  </si>
-  <si>
-    <t>(81, 4)</t>
-  </si>
-  <si>
-    <t>(81, 12)</t>
-  </si>
-  <si>
-    <t>(81, 14)</t>
-  </si>
-  <si>
-    <t>(81, 16)</t>
-  </si>
-  <si>
-    <t>(81, 17)</t>
-  </si>
-  <si>
-    <t>(85, 4); (113, 10)</t>
-  </si>
-  <si>
-    <t>(85, 6); (105, 12)</t>
-  </si>
-  <si>
-    <t>(85, 10); (101, 8); (121, 8)</t>
-  </si>
-  <si>
-    <t>(85, 13)</t>
-  </si>
-  <si>
-    <t>(85, 14)</t>
-  </si>
-  <si>
-    <t>(85, 15)</t>
-  </si>
-  <si>
-    <t>(85, 17)</t>
-  </si>
-  <si>
-    <t>(89, 5)</t>
-  </si>
-  <si>
-    <t>(89, 7)</t>
-  </si>
-  <si>
-    <t>(89, 9)</t>
-  </si>
-  <si>
-    <t>(89, 14); (109, 6)</t>
-  </si>
-  <si>
-    <t>(89, 15); (109, 7)</t>
-  </si>
-  <si>
-    <t>(93, 6)</t>
-  </si>
-  <si>
-    <t>(93, 8)</t>
-  </si>
-  <si>
-    <t>(101, 5); (121, 18)</t>
-  </si>
-  <si>
-    <t>(101, 6); (113, 14)</t>
-  </si>
-  <si>
-    <t>(101, 14)</t>
-  </si>
-  <si>
-    <t>(105, 7); (125, 12)</t>
-  </si>
-  <si>
-    <t>(105, 13)</t>
-  </si>
-  <si>
-    <t>(105, 18)</t>
-  </si>
-  <si>
-    <t>(109, 9)</t>
-  </si>
-  <si>
-    <t>(109, 10)</t>
-  </si>
-  <si>
-    <t>(109, 14)</t>
-  </si>
-  <si>
-    <t>(113, 4); (121, 16)</t>
-  </si>
-  <si>
-    <t>(113, 7); (113, 11)</t>
-  </si>
-  <si>
-    <t>(113, 16)</t>
-  </si>
-  <si>
-    <t>(117, 4)</t>
-  </si>
-  <si>
-    <t>(117, 7)</t>
-  </si>
-  <si>
-    <t>(117, 10)</t>
-  </si>
-  <si>
-    <t>(117, 13)</t>
-  </si>
-  <si>
-    <t>(121, 12)</t>
-  </si>
-  <si>
-    <t>(125, 4)</t>
-  </si>
-  <si>
-    <t>(125, 11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 4); (5, 4); (5, 4); (5, 4)</t>
+  </si>
+  <si>
+    <t>(5, 5); (37, 15); (5, 5); (37, 15); (5, 5); (37, 15); (5, 5); (37, 15)</t>
+  </si>
+  <si>
+    <t>(5, 6); (5, 6); (5, 6); (5, 6)</t>
+  </si>
+  <si>
+    <t>(5, 7); (5, 7); (5, 7); (5, 7)</t>
+  </si>
+  <si>
+    <t>(5, 9); (5, 9); (5, 9); (5, 9)</t>
+  </si>
+  <si>
+    <t>(5, 10); (5, 10); (5, 10); (5, 10)</t>
+  </si>
+  <si>
+    <t>(5, 11); (5, 11); (5, 11); (5, 11)</t>
+  </si>
+  <si>
+    <t>(5, 12); (5, 12); (5, 12); (5, 12)</t>
+  </si>
+  <si>
+    <t>(5, 14); (5, 14); (5, 14); (5, 14)</t>
+  </si>
+  <si>
+    <t>(5, 15); (5, 15); (5, 15); (5, 15)</t>
+  </si>
+  <si>
+    <t>(5, 16); (9, 10); (25, 13); (41, 7); (41, 14); (45, 14); (57, 6); (61, 10); (65, 8); (73, 12); (77, 4); (77, 16); (81, 5); (81, 11); (85, 9); (101, 10); (105, 14); (113, 5); (113, 12); (121, 17); (5, 16); (9, 10); (25, 13); (41, 7); (41, 14); (45, 14); (57, 6); (61, 10); (65, 8); (73, 12); (77, 4); (77, 16); (81, 5); (81, 11); (85, 9); (101, 10); (105, 14); (113, 5); (113, 12); (121, 17); (5, 16); (9, 10); (25, 13); (41, 7); (41, 14); (45, 14); (57, 6); (61, 10); (65, 8); (73, 12); (77, 4); (77, 16); (81, 5); (81, 11); (85, 9); (101, 10); (105, 14); (113, 5); (113, 12); (121, 17); (5, 16); (9, 10); (25, 13); (41, 7); (41, 14); (45, 14); (57, 6); (61, 10); (65, 8); (73, 12); (77, 4); (77, 16); (81, 5); (81, 11); (85, 9); (101, 10); (105, 14); (113, 5); (113, 12); (121, 17)</t>
+  </si>
+  <si>
+    <t>(5, 17); (5, 17); (5, 17); (5, 17)</t>
+  </si>
+  <si>
+    <t>(9, 4); (9, 6); (9, 4); (9, 6); (9, 4); (9, 6); (9, 4); (9, 6)</t>
+  </si>
+  <si>
+    <t>(9, 5); (69, 10); (69, 16); (89, 6); (105, 15); (125, 10); (9, 5); (69, 10); (69, 16); (89, 6); (105, 15); (125, 10); (9, 5); (69, 10); (69, 16); (89, 6); (105, 15); (125, 10); (9, 5); (69, 10); (69, 16); (89, 6); (105, 15); (125, 10)</t>
+  </si>
+  <si>
+    <t>(9, 7); (9, 7); (9, 7); (9, 7)</t>
+  </si>
+  <si>
+    <t>(9, 8); (13, 18); (9, 8); (13, 18); (9, 8); (13, 18); (9, 8); (13, 18)</t>
+  </si>
+  <si>
+    <t>(9, 9); (9, 9); (9, 9); (9, 9)</t>
+  </si>
+  <si>
+    <t>(9, 11); (9, 11); (9, 11); (9, 11)</t>
+  </si>
+  <si>
+    <t>(9, 12); (9, 12); (9, 12); (9, 12)</t>
+  </si>
+  <si>
+    <t>(9, 14); (17, 9); (9, 14); (17, 9); (9, 14); (17, 9); (9, 14); (17, 9)</t>
+  </si>
+  <si>
+    <t>(9, 15); (9, 15); (9, 15); (9, 15)</t>
+  </si>
+  <si>
+    <t>(9, 16); (77, 10); (117, 18); (9, 16); (77, 10); (117, 18); (9, 16); (77, 10); (117, 18); (9, 16); (77, 10); (117, 18)</t>
+  </si>
+  <si>
+    <t>(9, 17); (37, 6); (49, 5); (121, 14); (9, 17); (37, 6); (49, 5); (121, 14); (9, 17); (37, 6); (49, 5); (121, 14); (9, 17); (37, 6); (49, 5); (121, 14)</t>
+  </si>
+  <si>
+    <t>(13, 4); (13, 4); (13, 4); (13, 4)</t>
+  </si>
+  <si>
+    <t>(13, 5); (13, 5); (13, 5); (13, 5)</t>
+  </si>
+  <si>
+    <t>(13, 6); (13, 6); (13, 6); (13, 6)</t>
+  </si>
+  <si>
+    <t>(13, 7); (73, 14); (13, 7); (73, 14); (13, 7); (73, 14); (13, 7); (73, 14)</t>
+  </si>
+  <si>
+    <t>(13, 9); (13, 9); (13, 9); (13, 9)</t>
+  </si>
+  <si>
+    <t>(13, 10); (13, 10); (13, 10); (13, 10)</t>
+  </si>
+  <si>
+    <t>(13, 11); (13, 11); (13, 11); (13, 11)</t>
+  </si>
+  <si>
+    <t>(13, 12); (13, 12); (13, 12); (13, 12)</t>
+  </si>
+  <si>
+    <t>(13, 14); (13, 14); (13, 14); (13, 14)</t>
+  </si>
+  <si>
+    <t>(13, 15); (13, 15); (13, 15); (13, 15)</t>
+  </si>
+  <si>
+    <t>(13, 16); (17, 13); (125, 8); (13, 16); (17, 13); (125, 8); (13, 16); (17, 13); (125, 8); (13, 16); (17, 13); (125, 8)</t>
+  </si>
+  <si>
+    <t>(13, 17); (13, 17); (13, 17); (13, 17)</t>
+  </si>
+  <si>
+    <t>(17, 4); (17, 4); (17, 4); (17, 4)</t>
+  </si>
+  <si>
+    <t>(17, 5); (17, 5); (17, 5); (17, 5)</t>
+  </si>
+  <si>
+    <t>(17, 7); (17, 7); (17, 7); (17, 7)</t>
+  </si>
+  <si>
+    <t>(17, 8); (17, 8); (17, 8); (17, 8)</t>
+  </si>
+  <si>
+    <t>(17, 10); (25, 10); (17, 10); (25, 10); (17, 10); (25, 10); (17, 10); (25, 10)</t>
+  </si>
+  <si>
+    <t>(17, 12); (17, 12); (17, 12); (17, 12)</t>
+  </si>
+  <si>
+    <t>(17, 14); (37, 11); (17, 14); (37, 11); (17, 14); (37, 11); (17, 14); (37, 11)</t>
+  </si>
+  <si>
+    <t>(17, 15); (21, 12); (17, 15); (21, 12); (17, 15); (21, 12); (17, 15); (21, 12)</t>
+  </si>
+  <si>
+    <t>(17, 16); (17, 16); (17, 16); (17, 16)</t>
+  </si>
+  <si>
+    <t>(17, 17); (17, 17); (17, 17); (17, 17)</t>
+  </si>
+  <si>
+    <t>(21, 4); (21, 4); (21, 4); (21, 4)</t>
+  </si>
+  <si>
+    <t>(21, 5); (21, 5); (21, 5); (21, 5)</t>
+  </si>
+  <si>
+    <t>(21, 6); (21, 6); (21, 6); (21, 6)</t>
+  </si>
+  <si>
+    <t>(21, 7); (21, 7); (21, 7); (21, 7)</t>
+  </si>
+  <si>
+    <t>(21, 9); (21, 9); (21, 9); (21, 9)</t>
+  </si>
+  <si>
+    <t>(21, 10); (29, 8); (41, 18); (45, 10); (85, 8); (121, 7); (21, 10); (29, 8); (41, 18); (45, 10); (85, 8); (121, 7); (21, 10); (29, 8); (41, 18); (45, 10); (85, 8); (121, 7); (21, 10); (29, 8); (41, 18); (45, 10); (85, 8); (121, 7)</t>
+  </si>
+  <si>
+    <t>(21, 11); (81, 15); (109, 8); (109, 15); (21, 11); (81, 15); (109, 8); (109, 15); (21, 11); (81, 15); (109, 8); (109, 15); (21, 11); (81, 15); (109, 8); (109, 15)</t>
+  </si>
+  <si>
+    <t>(21, 13); (25, 17); (21, 13); (25, 17); (21, 13); (25, 17); (21, 13); (25, 17)</t>
+  </si>
+  <si>
+    <t>(21, 14); (21, 14); (21, 14); (21, 14)</t>
+  </si>
+  <si>
+    <t>(21, 15); (21, 15); (21, 15); (21, 15)</t>
+  </si>
+  <si>
+    <t>(21, 17); (117, 5); (21, 17); (117, 5); (21, 17); (117, 5); (21, 17); (117, 5)</t>
+  </si>
+  <si>
+    <t>(21, 18); (21, 18); (21, 18); (21, 18)</t>
+  </si>
+  <si>
+    <t>(25, 4); (69, 8); (73, 17); (117, 11); (121, 11); (25, 4); (69, 8); (73, 17); (117, 11); (121, 11); (25, 4); (69, 8); (73, 17); (117, 11); (121, 11); (25, 4); (69, 8); (73, 17); (117, 11); (121, 11)</t>
+  </si>
+  <si>
+    <t>(25, 5); (25, 5); (25, 5); (25, 5)</t>
+  </si>
+  <si>
+    <t>(25, 7); (65, 11); (117, 15); (25, 7); (65, 11); (117, 15); (25, 7); (65, 11); (117, 15); (25, 7); (65, 11); (117, 15)</t>
+  </si>
+  <si>
+    <t>(25, 8); (25, 8); (25, 8); (25, 8)</t>
+  </si>
+  <si>
+    <t>(25, 9); (25, 9); (25, 9); (25, 9)</t>
+  </si>
+  <si>
+    <t>(25, 11); (25, 11); (25, 11); (25, 11)</t>
+  </si>
+  <si>
+    <t>(25, 12); (25, 12); (25, 12); (25, 12)</t>
+  </si>
+  <si>
+    <t>(25, 14); (41, 15); (25, 14); (41, 15); (25, 14); (41, 15); (25, 14); (41, 15)</t>
+  </si>
+  <si>
+    <t>(25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13); (25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13); (25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13); (25, 16); (25, 18); (57, 12); (61, 8); (101, 15); (109, 5); (121, 13)</t>
+  </si>
+  <si>
+    <t>(29, 4); (29, 4); (29, 4); (29, 4)</t>
+  </si>
+  <si>
+    <t>(29, 6); (89, 16); (113, 9); (125, 6); (29, 6); (89, 16); (113, 9); (125, 6); (29, 6); (89, 16); (113, 9); (125, 6); (29, 6); (89, 16); (113, 9); (125, 6)</t>
+  </si>
+  <si>
+    <t>(29, 7); (45, 9); (73, 7); (29, 7); (45, 9); (73, 7); (29, 7); (45, 9); (73, 7); (29, 7); (45, 9); (73, 7)</t>
+  </si>
+  <si>
+    <t>(29, 9); (37, 16); (29, 9); (37, 16); (29, 9); (37, 16); (29, 9); (37, 16)</t>
+  </si>
+  <si>
+    <t>(29, 10); (117, 6); (29, 10); (117, 6); (29, 10); (117, 6); (29, 10); (117, 6)</t>
+  </si>
+  <si>
+    <t>(29, 11); (29, 11); (29, 11); (29, 11)</t>
+  </si>
+  <si>
+    <t>(29, 12); (77, 8); (29, 12); (77, 8); (29, 12); (77, 8); (29, 12); (77, 8)</t>
+  </si>
+  <si>
+    <t>(37, 4); (37, 4); (37, 4); (37, 4)</t>
+  </si>
+  <si>
+    <t>(37, 5); (37, 5); (37, 5); (37, 5)</t>
+  </si>
+  <si>
+    <t>(37, 8); (37, 8); (37, 8); (37, 8)</t>
+  </si>
+  <si>
+    <t>(37, 9); (37, 9); (37, 9); (37, 9)</t>
+  </si>
+  <si>
+    <t>(37, 10); (37, 10); (37, 10); (37, 10)</t>
+  </si>
+  <si>
+    <t>(37, 13); (37, 13); (37, 13); (37, 13)</t>
+  </si>
+  <si>
+    <t>(37, 14); (37, 14); (37, 14); (37, 14)</t>
+  </si>
+  <si>
+    <t>(37, 18); (57, 11); (81, 10); (37, 18); (57, 11); (81, 10); (37, 18); (57, 11); (81, 10); (37, 18); (57, 11); (81, 10)</t>
+  </si>
+  <si>
+    <t>(41, 4); (41, 4); (41, 4); (41, 4)</t>
+  </si>
+  <si>
+    <t>(41, 5); (41, 5); (41, 5); (41, 5)</t>
+  </si>
+  <si>
+    <t>(41, 6); (41, 6); (41, 6); (41, 6)</t>
+  </si>
+  <si>
+    <t>(41, 8); (89, 17); (41, 8); (89, 17); (41, 8); (89, 17); (41, 8); (89, 17)</t>
+  </si>
+  <si>
+    <t>(41, 10); (57, 10); (81, 9); (41, 10); (57, 10); (81, 9); (41, 10); (57, 10); (81, 9); (41, 10); (57, 10); (81, 9)</t>
+  </si>
+  <si>
+    <t>(41, 11); (41, 11); (41, 11); (41, 11)</t>
+  </si>
+  <si>
+    <t>(41, 12); (41, 12); (41, 12); (41, 12)</t>
+  </si>
+  <si>
+    <t>(41, 13); (41, 13); (41, 13); (41, 13)</t>
+  </si>
+  <si>
+    <t>(41, 17); (61, 16); (69, 11); (73, 18); (81, 6); (117, 12); (121, 6); (41, 17); (61, 16); (69, 11); (73, 18); (81, 6); (117, 12); (121, 6); (41, 17); (61, 16); (69, 11); (73, 18); (81, 6); (117, 12); (121, 6); (41, 17); (61, 16); (69, 11); (73, 18); (81, 6); (117, 12); (121, 6)</t>
+  </si>
+  <si>
+    <t>(45, 4); (45, 4); (45, 4); (45, 4)</t>
+  </si>
+  <si>
+    <t>(45, 5); (45, 5); (45, 5); (45, 5)</t>
+  </si>
+  <si>
+    <t>(45, 6); (45, 6); (45, 6); (45, 6)</t>
+  </si>
+  <si>
+    <t>(45, 7); (57, 18); (85, 11); (105, 16); (121, 9); (45, 7); (57, 18); (85, 11); (105, 16); (121, 9); (45, 7); (57, 18); (85, 11); (105, 16); (121, 9); (45, 7); (57, 18); (85, 11); (105, 16); (121, 9)</t>
+  </si>
+  <si>
+    <t>(45, 11); (45, 11); (45, 11); (45, 11)</t>
+  </si>
+  <si>
+    <t>(45, 12); (113, 6); (113, 13); (45, 12); (113, 6); (113, 13); (45, 12); (113, 6); (113, 13); (45, 12); (113, 6); (113, 13)</t>
+  </si>
+  <si>
+    <t>(45, 13); (45, 13); (45, 13); (45, 13)</t>
+  </si>
+  <si>
+    <t>(45, 15); (45, 15); (45, 15); (45, 15)</t>
+  </si>
+  <si>
+    <t>(45, 17); (45, 17); (45, 17); (45, 17)</t>
+  </si>
+  <si>
+    <t>(45, 18); (45, 18); (45, 18); (45, 18)</t>
+  </si>
+  <si>
+    <t>(49, 4); (49, 4); (49, 4); (49, 4)</t>
+  </si>
+  <si>
+    <t>(57, 4); (113, 17); (57, 4); (113, 17); (57, 4); (113, 17); (57, 4); (113, 17)</t>
+  </si>
+  <si>
+    <t>(57, 5); (89, 10); (101, 7); (117, 8); (57, 5); (89, 10); (101, 7); (117, 8); (57, 5); (89, 10); (101, 7); (117, 8); (57, 5); (89, 10); (101, 7); (117, 8)</t>
+  </si>
+  <si>
+    <t>(57, 7); (57, 7); (57, 7); (57, 7)</t>
+  </si>
+  <si>
+    <t>(57, 8); (57, 8); (57, 8); (57, 8)</t>
+  </si>
+  <si>
+    <t>(57, 13); (117, 16); (57, 13); (117, 16); (57, 13); (117, 16); (57, 13); (117, 16)</t>
+  </si>
+  <si>
+    <t>(57, 15); (61, 13); (57, 15); (61, 13); (57, 15); (61, 13); (57, 15); (61, 13)</t>
+  </si>
+  <si>
+    <t>(57, 16); (65, 12); (57, 16); (65, 12); (57, 16); (65, 12); (57, 16); (65, 12)</t>
+  </si>
+  <si>
+    <t>(57, 17); (57, 17); (57, 17); (57, 17)</t>
+  </si>
+  <si>
+    <t>(61, 4); (61, 4); (61, 4); (61, 4)</t>
+  </si>
+  <si>
+    <t>(61, 6); (61, 6); (61, 6); (61, 6)</t>
+  </si>
+  <si>
+    <t>(61, 7); (61, 7); (61, 7); (61, 7)</t>
+  </si>
+  <si>
+    <t>(61, 9); (61, 9); (61, 9); (61, 9)</t>
+  </si>
+  <si>
+    <t>(61, 11); (61, 11); (61, 11); (61, 11)</t>
+  </si>
+  <si>
+    <t>(61, 14); (61, 14); (61, 14); (61, 14)</t>
+  </si>
+  <si>
+    <t>(61, 15); (61, 15); (61, 15); (61, 15)</t>
+  </si>
+  <si>
+    <t>(61, 17); (61, 17); (61, 17); (61, 17)</t>
+  </si>
+  <si>
+    <t>(65, 4); (65, 4); (65, 4); (65, 4)</t>
+  </si>
+  <si>
+    <t>(65, 5); (65, 5); (65, 5); (65, 5)</t>
+  </si>
+  <si>
+    <t>(65, 6); (65, 6); (65, 6); (65, 6)</t>
+  </si>
+  <si>
+    <t>(65, 7); (65, 7); (65, 7); (65, 7)</t>
+  </si>
+  <si>
+    <t>(65, 9); (65, 9); (65, 9); (65, 9)</t>
+  </si>
+  <si>
+    <t>(65, 13); (65, 13); (65, 13); (65, 13)</t>
+  </si>
+  <si>
+    <t>(65, 14); (65, 14); (65, 14); (65, 14)</t>
+  </si>
+  <si>
+    <t>(65, 15); (117, 17); (65, 15); (117, 17); (65, 15); (117, 17); (65, 15); (117, 17)</t>
+  </si>
+  <si>
+    <t>(65, 17); (65, 17); (65, 17); (65, 17)</t>
+  </si>
+  <si>
+    <t>(65, 18); (65, 18); (65, 18); (65, 18)</t>
+  </si>
+  <si>
+    <t>(69, 4); (73, 9); (85, 5); (85, 7); (93, 7); (105, 5); (105, 11); (69, 4); (73, 9); (85, 5); (85, 7); (93, 7); (105, 5); (105, 11); (69, 4); (73, 9); (85, 5); (85, 7); (93, 7); (105, 5); (105, 11); (69, 4); (73, 9); (85, 5); (85, 7); (93, 7); (105, 5); (105, 11)</t>
+  </si>
+  <si>
+    <t>(69, 5); (69, 5); (69, 5); (69, 5)</t>
+  </si>
+  <si>
+    <t>(69, 7); (69, 7); (69, 7); (69, 7)</t>
+  </si>
+  <si>
+    <t>(69, 9); (81, 7); (69, 9); (81, 7); (69, 9); (81, 7); (69, 9); (81, 7)</t>
+  </si>
+  <si>
+    <t>(69, 12); (69, 12); (69, 12); (69, 12)</t>
+  </si>
+  <si>
+    <t>(69, 14); (69, 14); (69, 14); (69, 14)</t>
+  </si>
+  <si>
+    <t>(69, 15); (69, 15); (69, 15); (69, 15)</t>
+  </si>
+  <si>
+    <t>(69, 17); (69, 17); (69, 17); (69, 17)</t>
+  </si>
+  <si>
+    <t>(73, 4); (73, 4); (73, 4); (73, 4)</t>
+  </si>
+  <si>
+    <t>(73, 5); (73, 5); (73, 5); (73, 5)</t>
+  </si>
+  <si>
+    <t>(73, 6); (73, 6); (73, 6); (73, 6)</t>
+  </si>
+  <si>
+    <t>(73, 10); (109, 4); (73, 10); (109, 4); (73, 10); (109, 4); (73, 10); (109, 4)</t>
+  </si>
+  <si>
+    <t>(73, 11); (73, 11); (73, 11); (73, 11)</t>
+  </si>
+  <si>
+    <t>(73, 13); (125, 7); (73, 13); (125, 7); (73, 13); (125, 7); (73, 13); (125, 7)</t>
+  </si>
+  <si>
+    <t>(73, 16); (73, 16); (73, 16); (73, 16)</t>
+  </si>
+  <si>
+    <t>(77, 5); (77, 5); (77, 5); (77, 5)</t>
+  </si>
+  <si>
+    <t>(77, 6); (77, 6); (77, 6); (77, 6)</t>
+  </si>
+  <si>
+    <t>(77, 9); (85, 16); (77, 9); (85, 16); (77, 9); (85, 16); (77, 9); (85, 16)</t>
+  </si>
+  <si>
+    <t>(77, 11); (77, 11); (77, 11); (77, 11)</t>
+  </si>
+  <si>
+    <t>(77, 13); (101, 9); (125, 9); (77, 13); (101, 9); (125, 9); (77, 13); (101, 9); (125, 9); (77, 13); (101, 9); (125, 9)</t>
+  </si>
+  <si>
+    <t>(77, 14); (77, 14); (77, 14); (77, 14)</t>
+  </si>
+  <si>
+    <t>(77, 15); (77, 15); (77, 15); (77, 15)</t>
+  </si>
+  <si>
+    <t>(77, 17); (89, 18); (77, 17); (89, 18); (77, 17); (89, 18); (77, 17); (89, 18)</t>
+  </si>
+  <si>
+    <t>(81, 4); (81, 4); (81, 4); (81, 4)</t>
+  </si>
+  <si>
+    <t>(81, 12); (81, 12); (81, 12); (81, 12)</t>
+  </si>
+  <si>
+    <t>(81, 14); (81, 14); (81, 14); (81, 14)</t>
+  </si>
+  <si>
+    <t>(81, 16); (81, 16); (81, 16); (81, 16)</t>
+  </si>
+  <si>
+    <t>(81, 17); (81, 17); (81, 17); (81, 17)</t>
+  </si>
+  <si>
+    <t>(85, 4); (113, 10); (85, 4); (113, 10); (85, 4); (113, 10); (85, 4); (113, 10)</t>
+  </si>
+  <si>
+    <t>(85, 6); (105, 12); (85, 6); (105, 12); (85, 6); (105, 12); (85, 6); (105, 12)</t>
+  </si>
+  <si>
+    <t>(85, 10); (101, 8); (121, 8); (85, 10); (101, 8); (121, 8); (85, 10); (101, 8); (121, 8); (85, 10); (101, 8); (121, 8)</t>
+  </si>
+  <si>
+    <t>(85, 13); (85, 13); (85, 13); (85, 13)</t>
+  </si>
+  <si>
+    <t>(85, 14); (85, 14); (85, 14); (85, 14)</t>
+  </si>
+  <si>
+    <t>(85, 15); (85, 15); (85, 15); (85, 15)</t>
+  </si>
+  <si>
+    <t>(85, 17); (85, 17); (85, 17); (85, 17)</t>
+  </si>
+  <si>
+    <t>(89, 4); (89, 4); (89, 4); (89, 4)</t>
+  </si>
+  <si>
+    <t>(89, 5); (89, 5); (89, 5); (89, 5)</t>
+  </si>
+  <si>
+    <t>(89, 7); (89, 7); (89, 7); (89, 7)</t>
+  </si>
+  <si>
+    <t>(89, 9); (89, 9); (89, 9); (89, 9)</t>
+  </si>
+  <si>
+    <t>(89, 11); (89, 11); (89, 11); (89, 11)</t>
+  </si>
+  <si>
+    <t>(89, 14); (109, 6); (89, 14); (109, 6); (89, 14); (109, 6); (89, 14); (109, 6)</t>
+  </si>
+  <si>
+    <t>(89, 15); (109, 7); (89, 15); (109, 7); (89, 15); (109, 7); (89, 15); (109, 7)</t>
+  </si>
+  <si>
+    <t>(93, 6); (93, 6); (93, 6); (93, 6)</t>
+  </si>
+  <si>
+    <t>(93, 8); (93, 8); (93, 8); (93, 8)</t>
+  </si>
+  <si>
+    <t>(93, 9); (93, 9); (93, 9); (93, 9)</t>
+  </si>
+  <si>
+    <t>(101, 4); (101, 4); (101, 4); (101, 4)</t>
+  </si>
+  <si>
+    <t>(101, 5); (121, 18); (101, 5); (121, 18); (101, 5); (121, 18); (101, 5); (121, 18)</t>
+  </si>
+  <si>
+    <t>(101, 6); (113, 14); (101, 6); (113, 14); (101, 6); (113, 14); (101, 6); (113, 14)</t>
+  </si>
+  <si>
+    <t>(101, 11); (101, 11); (101, 11); (101, 11)</t>
+  </si>
+  <si>
+    <t>(101, 13); (101, 13); (101, 13); (101, 13)</t>
+  </si>
+  <si>
+    <t>(101, 14); (101, 14); (101, 14); (101, 14)</t>
+  </si>
+  <si>
+    <t>(101, 16); (101, 16); (101, 16); (101, 16)</t>
+  </si>
+  <si>
+    <t>(101, 18); (101, 18); (101, 18); (101, 18)</t>
+  </si>
+  <si>
+    <t>(105, 4); (105, 4); (105, 4); (105, 4)</t>
+  </si>
+  <si>
+    <t>(105, 6); (105, 6); (105, 6); (105, 6)</t>
+  </si>
+  <si>
+    <t>(105, 7); (125, 12); (105, 7); (125, 12); (105, 7); (125, 12); (105, 7); (125, 12)</t>
+  </si>
+  <si>
+    <t>(105, 8); (105, 8); (105, 8); (105, 8)</t>
+  </si>
+  <si>
+    <t>(105, 9); (105, 9); (105, 9); (105, 9)</t>
+  </si>
+  <si>
+    <t>(105, 13); (105, 13); (105, 13); (105, 13)</t>
+  </si>
+  <si>
+    <t>(105, 18); (105, 18); (105, 18); (105, 18)</t>
+  </si>
+  <si>
+    <t>(109, 9); (109, 9); (109, 9); (109, 9)</t>
+  </si>
+  <si>
+    <t>(109, 10); (109, 10); (109, 10); (109, 10)</t>
+  </si>
+  <si>
+    <t>(109, 12); (109, 12); (109, 12); (109, 12)</t>
+  </si>
+  <si>
+    <t>(109, 13); (109, 13); (109, 13); (109, 13)</t>
+  </si>
+  <si>
+    <t>(109, 14); (109, 14); (109, 14); (109, 14)</t>
+  </si>
+  <si>
+    <t>(109, 16); (109, 16); (109, 16); (109, 16)</t>
+  </si>
+  <si>
+    <t>(109, 17); (109, 17); (109, 17); (109, 17)</t>
+  </si>
+  <si>
+    <t>(113, 4); (121, 16); (113, 4); (121, 16); (113, 4); (121, 16); (113, 4); (121, 16)</t>
+  </si>
+  <si>
+    <t>(113, 7); (113, 11); (113, 7); (113, 11); (113, 7); (113, 11); (113, 7); (113, 11)</t>
+  </si>
+  <si>
+    <t>(113, 16); (113, 16); (113, 16); (113, 16)</t>
+  </si>
+  <si>
+    <t>(117, 4); (117, 4); (117, 4); (117, 4)</t>
+  </si>
+  <si>
+    <t>(117, 7); (117, 7); (117, 7); (117, 7)</t>
+  </si>
+  <si>
+    <t>(117, 10); (117, 10); (117, 10); (117, 10)</t>
+  </si>
+  <si>
+    <t>(117, 13); (117, 13); (117, 13); (117, 13)</t>
+  </si>
+  <si>
+    <t>(121, 4); (121, 4); (121, 4); (121, 4)</t>
+  </si>
+  <si>
+    <t>(121, 12); (121, 12); (121, 12); (121, 12)</t>
+  </si>
+  <si>
+    <t>(125, 4); (125, 4); (125, 4); (125, 4)</t>
+  </si>
+  <si>
+    <t>(125, 11); (125, 11); (125, 11); (125, 11)</t>
   </si>
 </sst>
 </file>
@@ -10445,7 +11397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5319F1F7-2D83-4C55-A743-7EF944EE4FD4}">
   <dimension ref="A1:E206"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
@@ -10471,7 +11423,7 @@
         <v>1393</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>438</v>
@@ -10480,7 +11432,7 @@
         <v>499</v>
       </c>
       <c r="E2" t="s">
-        <v>918</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10488,7 +11440,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
@@ -10497,7 +11449,7 @@
         <v>499</v>
       </c>
       <c r="E3" t="s">
-        <v>1755</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10505,16 +11457,16 @@
         <v>1394</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D4" t="s">
         <v>499</v>
       </c>
       <c r="E4" t="s">
-        <v>920</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10522,16 +11474,16 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D5" t="s">
         <v>499</v>
       </c>
       <c r="E5" t="s">
-        <v>1276</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10539,7 +11491,7 @@
         <v>1395</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>60</v>
@@ -10548,7 +11500,7 @@
         <v>499</v>
       </c>
       <c r="E6" t="s">
-        <v>1277</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10556,16 +11508,16 @@
         <v>113</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="D7" t="s">
         <v>499</v>
       </c>
       <c r="E7" t="s">
-        <v>923</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10573,16 +11525,16 @@
         <v>1396</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
       <c r="D8" t="s">
         <v>499</v>
       </c>
       <c r="E8" t="s">
-        <v>924</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10590,16 +11542,16 @@
         <v>1397</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>1527</v>
+        <v>1522</v>
       </c>
       <c r="D9" t="s">
         <v>499</v>
       </c>
       <c r="E9" t="s">
-        <v>925</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10607,7 +11559,7 @@
         <v>191</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>405</v>
@@ -10616,7 +11568,7 @@
         <v>499</v>
       </c>
       <c r="E10" t="s">
-        <v>927</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10624,7 +11576,7 @@
         <v>71</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>303</v>
@@ -10633,7 +11585,7 @@
         <v>499</v>
       </c>
       <c r="E11" t="s">
-        <v>1756</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -10641,7 +11593,7 @@
         <v>108</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>338</v>
@@ -10650,7 +11602,7 @@
         <v>499</v>
       </c>
       <c r="E12" t="s">
-        <v>1757</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10658,16 +11610,16 @@
         <v>1398</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="D13" t="s">
         <v>499</v>
       </c>
       <c r="E13" t="s">
-        <v>930</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10675,16 +11627,16 @@
         <v>154</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="D14" t="s">
         <v>499</v>
       </c>
       <c r="E14" t="s">
-        <v>1758</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10692,7 +11644,7 @@
         <v>102</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>333</v>
@@ -10701,7 +11653,7 @@
         <v>499</v>
       </c>
       <c r="E15" t="s">
-        <v>1759</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10709,16 +11661,16 @@
         <v>1399</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>1533</v>
+        <v>1525</v>
       </c>
       <c r="D16" t="s">
         <v>499</v>
       </c>
       <c r="E16" t="s">
-        <v>1760</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10726,7 +11678,7 @@
         <v>119</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>1207</v>
@@ -10735,7 +11687,7 @@
         <v>499</v>
       </c>
       <c r="E17" t="s">
-        <v>1761</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10743,16 +11695,16 @@
         <v>131</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="D18" t="s">
         <v>499</v>
       </c>
       <c r="E18" t="s">
-        <v>1280</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10760,7 +11712,7 @@
         <v>233</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>425</v>
@@ -10769,7 +11721,7 @@
         <v>499</v>
       </c>
       <c r="E19" t="s">
-        <v>1762</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10777,7 +11729,7 @@
         <v>1400</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>304</v>
@@ -10786,7 +11738,7 @@
         <v>499</v>
       </c>
       <c r="E20" t="s">
-        <v>1763</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10794,7 +11746,7 @@
         <v>88</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>320</v>
@@ -10803,7 +11755,7 @@
         <v>499</v>
       </c>
       <c r="E21" t="s">
-        <v>1764</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10811,16 +11763,16 @@
         <v>1401</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>1538</v>
+        <v>1527</v>
       </c>
       <c r="D22" t="s">
         <v>499</v>
       </c>
       <c r="E22" t="s">
-        <v>939</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10828,7 +11780,7 @@
         <v>1402</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>61</v>
@@ -10837,7 +11789,7 @@
         <v>499</v>
       </c>
       <c r="E23" t="s">
-        <v>1765</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10845,7 +11797,7 @@
         <v>138</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
         <v>1173</v>
@@ -10854,7 +11806,7 @@
         <v>499</v>
       </c>
       <c r="E24" t="s">
-        <v>1766</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10862,16 +11814,16 @@
         <v>1403</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="D25" t="s">
         <v>499</v>
       </c>
       <c r="E25" t="s">
-        <v>942</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10879,7 +11831,7 @@
         <v>98</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>329</v>
@@ -10888,7 +11840,7 @@
         <v>499</v>
       </c>
       <c r="E26" t="s">
-        <v>943</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -10896,7 +11848,7 @@
         <v>1404</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>479</v>
@@ -10905,7 +11857,7 @@
         <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>1767</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -10913,7 +11865,7 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -10922,7 +11874,7 @@
         <v>499</v>
       </c>
       <c r="E28" t="s">
-        <v>1768</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -10930,16 +11882,16 @@
         <v>1405</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>1546</v>
+        <v>1529</v>
       </c>
       <c r="D29" t="s">
         <v>499</v>
       </c>
       <c r="E29" t="s">
-        <v>1769</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10947,16 +11899,16 @@
         <v>121</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>1547</v>
+        <v>1530</v>
       </c>
       <c r="D30" t="s">
         <v>499</v>
       </c>
       <c r="E30" t="s">
-        <v>947</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -10964,7 +11916,7 @@
         <v>1406</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
         <v>485</v>
@@ -10973,7 +11925,7 @@
         <v>499</v>
       </c>
       <c r="E31" t="s">
-        <v>1770</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -10981,7 +11933,7 @@
         <v>225</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
         <v>435</v>
@@ -10990,7 +11942,7 @@
         <v>499</v>
       </c>
       <c r="E32" t="s">
-        <v>949</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -10998,7 +11950,7 @@
         <v>136</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
         <v>362</v>
@@ -11007,7 +11959,7 @@
         <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>1771</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -11015,16 +11967,16 @@
         <v>1407</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>1550</v>
+        <v>1531</v>
       </c>
       <c r="D34" t="s">
         <v>499</v>
       </c>
       <c r="E34" t="s">
-        <v>951</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -11032,16 +11984,16 @@
         <v>19</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>1552</v>
+        <v>1532</v>
       </c>
       <c r="D35" t="s">
         <v>499</v>
       </c>
       <c r="E35" t="s">
-        <v>1772</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -11049,16 +12001,16 @@
         <v>1408</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>1554</v>
+        <v>1533</v>
       </c>
       <c r="D36" t="s">
         <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>953</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -11066,16 +12018,16 @@
         <v>1409</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>1556</v>
+        <v>1534</v>
       </c>
       <c r="D37" t="s">
         <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>1773</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11083,7 +12035,7 @@
         <v>1410</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>1215</v>
@@ -11092,7 +12044,7 @@
         <v>499</v>
       </c>
       <c r="E38" t="s">
-        <v>955</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -11100,7 +12052,7 @@
         <v>1411</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
         <v>405</v>
@@ -11109,7 +12061,7 @@
         <v>499</v>
       </c>
       <c r="E39" t="s">
-        <v>1774</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11117,7 +12069,7 @@
         <v>1185</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
         <v>1183</v>
@@ -11126,7 +12078,7 @@
         <v>499</v>
       </c>
       <c r="E40" t="s">
-        <v>1775</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11134,7 +12086,7 @@
         <v>1214</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>307</v>
@@ -11143,7 +12095,7 @@
         <v>499</v>
       </c>
       <c r="E41" t="s">
-        <v>1776</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -11151,16 +12103,16 @@
         <v>1412</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>1558</v>
+        <v>1535</v>
       </c>
       <c r="D42" t="s">
         <v>499</v>
       </c>
       <c r="E42" t="s">
-        <v>1777</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -11168,16 +12120,16 @@
         <v>1413</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>1560</v>
+        <v>1536</v>
       </c>
       <c r="D43" t="s">
         <v>499</v>
       </c>
       <c r="E43" t="s">
-        <v>1778</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11185,7 +12137,7 @@
         <v>1414</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>323</v>
@@ -11194,7 +12146,7 @@
         <v>499</v>
       </c>
       <c r="E44" t="s">
-        <v>1779</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11202,16 +12154,16 @@
         <v>1415</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>1563</v>
+        <v>1537</v>
       </c>
       <c r="D45" t="s">
         <v>499</v>
       </c>
       <c r="E45" t="s">
-        <v>964</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -11219,16 +12171,16 @@
         <v>1416</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>1565</v>
+        <v>1538</v>
       </c>
       <c r="D46" t="s">
         <v>499</v>
       </c>
       <c r="E46" t="s">
-        <v>1780</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -11236,16 +12188,16 @@
         <v>1417</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>1567</v>
+        <v>1539</v>
       </c>
       <c r="D47" t="s">
         <v>499</v>
       </c>
       <c r="E47" t="s">
-        <v>1171</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -11253,16 +12205,16 @@
         <v>1418</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>1569</v>
+        <v>1540</v>
       </c>
       <c r="D48" t="s">
         <v>499</v>
       </c>
       <c r="E48" t="s">
-        <v>1259</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -11270,16 +12222,16 @@
         <v>1419</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>1571</v>
+        <v>1541</v>
       </c>
       <c r="D49" t="s">
         <v>499</v>
       </c>
       <c r="E49" t="s">
-        <v>1260</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -11287,16 +12239,16 @@
         <v>1420</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>1558</v>
+        <v>1535</v>
       </c>
       <c r="D50" t="s">
         <v>499</v>
       </c>
       <c r="E50" t="s">
-        <v>1261</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -11304,16 +12256,16 @@
         <v>1421</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>1573</v>
+        <v>1542</v>
       </c>
       <c r="D51" t="s">
         <v>499</v>
       </c>
       <c r="E51" t="s">
-        <v>1282</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -11321,7 +12273,7 @@
         <v>106</v>
       </c>
       <c r="B52">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
         <v>336</v>
@@ -11330,7 +12282,7 @@
         <v>499</v>
       </c>
       <c r="E52" t="s">
-        <v>1781</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -11338,16 +12290,16 @@
         <v>273</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>1575</v>
+        <v>1543</v>
       </c>
       <c r="D53" t="s">
         <v>499</v>
       </c>
       <c r="E53" t="s">
-        <v>1782</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -11355,16 +12307,16 @@
         <v>1422</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>1577</v>
+        <v>1544</v>
       </c>
       <c r="D54" t="s">
         <v>499</v>
       </c>
       <c r="E54" t="s">
-        <v>1783</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11372,16 +12324,16 @@
         <v>1423</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>1578</v>
+        <v>1545</v>
       </c>
       <c r="D55" t="s">
         <v>499</v>
       </c>
       <c r="E55" t="s">
-        <v>1784</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -11389,16 +12341,16 @@
         <v>1424</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>1580</v>
+        <v>1546</v>
       </c>
       <c r="D56" t="s">
         <v>499</v>
       </c>
       <c r="E56" t="s">
-        <v>1785</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -11406,16 +12358,16 @@
         <v>1425</v>
       </c>
       <c r="B57">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>1582</v>
+        <v>1547</v>
       </c>
       <c r="D57" t="s">
         <v>499</v>
       </c>
       <c r="E57" t="s">
-        <v>1786</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -11423,16 +12375,16 @@
         <v>1426</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>1583</v>
+        <v>1548</v>
       </c>
       <c r="D58" t="s">
         <v>499</v>
       </c>
       <c r="E58" t="s">
-        <v>1787</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -11440,7 +12392,7 @@
         <v>93</v>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
@@ -11449,7 +12401,7 @@
         <v>499</v>
       </c>
       <c r="E59" t="s">
-        <v>1788</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -11457,7 +12409,7 @@
         <v>1427</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
@@ -11466,7 +12418,7 @@
         <v>499</v>
       </c>
       <c r="E60" t="s">
-        <v>1789</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -11474,7 +12426,7 @@
         <v>1428</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>1169</v>
@@ -11483,7 +12435,7 @@
         <v>499</v>
       </c>
       <c r="E61" t="s">
-        <v>1790</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -11491,7 +12443,7 @@
         <v>26</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>1247</v>
@@ -11500,7 +12452,7 @@
         <v>499</v>
       </c>
       <c r="E62" t="s">
-        <v>1791</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -11508,7 +12460,7 @@
         <v>1429</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>331</v>
@@ -11517,7 +12469,7 @@
         <v>499</v>
       </c>
       <c r="E63" t="s">
-        <v>1792</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -11525,16 +12477,16 @@
         <v>1430</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>1587</v>
+        <v>1549</v>
       </c>
       <c r="D64" t="s">
         <v>499</v>
       </c>
       <c r="E64" t="s">
-        <v>1793</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -11542,7 +12494,7 @@
         <v>1431</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
         <v>329</v>
@@ -11551,7 +12503,7 @@
         <v>499</v>
       </c>
       <c r="E65" t="s">
-        <v>1794</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -11559,16 +12511,16 @@
         <v>1432</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>1589</v>
+        <v>1550</v>
       </c>
       <c r="D66" t="s">
         <v>499</v>
       </c>
       <c r="E66" t="s">
-        <v>1795</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -11576,7 +12528,7 @@
         <v>31</v>
       </c>
       <c r="B67">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
         <v>1299</v>
@@ -11585,7 +12537,7 @@
         <v>499</v>
       </c>
       <c r="E67" t="s">
-        <v>1796</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -11593,16 +12545,16 @@
         <v>1433</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>1591</v>
+        <v>1551</v>
       </c>
       <c r="D68" t="s">
         <v>499</v>
       </c>
       <c r="E68" t="s">
-        <v>1797</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -11610,7 +12562,7 @@
         <v>283</v>
       </c>
       <c r="B69">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>364</v>
@@ -11619,7 +12571,7 @@
         <v>499</v>
       </c>
       <c r="E69" t="s">
-        <v>1798</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -11627,16 +12579,16 @@
         <v>1434</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>1594</v>
+        <v>1552</v>
       </c>
       <c r="D70" t="s">
         <v>499</v>
       </c>
       <c r="E70" t="s">
-        <v>1799</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -11644,16 +12596,16 @@
         <v>1435</v>
       </c>
       <c r="B71">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>1596</v>
+        <v>1553</v>
       </c>
       <c r="D71" t="s">
         <v>499</v>
       </c>
       <c r="E71" t="s">
-        <v>1800</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -11661,16 +12613,16 @@
         <v>1436</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>1597</v>
+        <v>1554</v>
       </c>
       <c r="D72" t="s">
         <v>499</v>
       </c>
       <c r="E72" t="s">
-        <v>1801</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -11678,7 +12630,7 @@
         <v>1437</v>
       </c>
       <c r="B73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>416</v>
@@ -11687,7 +12639,7 @@
         <v>499</v>
       </c>
       <c r="E73" t="s">
-        <v>1802</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -11695,7 +12647,7 @@
         <v>157</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>380</v>
@@ -11704,7 +12656,7 @@
         <v>499</v>
       </c>
       <c r="E74" t="s">
-        <v>1803</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -11712,7 +12664,7 @@
         <v>33</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>53</v>
@@ -11721,7 +12673,7 @@
         <v>499</v>
       </c>
       <c r="E75" t="s">
-        <v>985</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -11729,7 +12681,7 @@
         <v>20</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
         <v>1238</v>
@@ -11738,7 +12690,7 @@
         <v>499</v>
       </c>
       <c r="E76" t="s">
-        <v>1292</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -11746,16 +12698,16 @@
         <v>218</v>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>1601</v>
+        <v>1555</v>
       </c>
       <c r="D77" t="s">
         <v>499</v>
       </c>
       <c r="E77" t="s">
-        <v>987</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -11763,16 +12715,16 @@
         <v>1438</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
-        <v>1603</v>
+        <v>1556</v>
       </c>
       <c r="D78" t="s">
         <v>499</v>
       </c>
       <c r="E78" t="s">
-        <v>1804</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -11780,7 +12732,7 @@
         <v>132</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>359</v>
@@ -11789,7 +12741,7 @@
         <v>499</v>
       </c>
       <c r="E79" t="s">
-        <v>1805</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -11797,16 +12749,16 @@
         <v>1439</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
-        <v>1605</v>
+        <v>1557</v>
       </c>
       <c r="D80" t="s">
         <v>499</v>
       </c>
       <c r="E80" t="s">
-        <v>1806</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -11814,7 +12766,7 @@
         <v>170</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
         <v>389</v>
@@ -11823,7 +12775,7 @@
         <v>499</v>
       </c>
       <c r="E81" t="s">
-        <v>1807</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -11831,16 +12783,16 @@
         <v>1440</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>1607</v>
+        <v>1558</v>
       </c>
       <c r="D82" t="s">
         <v>499</v>
       </c>
       <c r="E82" t="s">
-        <v>1808</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -11848,7 +12800,7 @@
         <v>109</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
         <v>339</v>
@@ -11857,7 +12809,7 @@
         <v>499</v>
       </c>
       <c r="E83" t="s">
-        <v>1809</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -11865,7 +12817,7 @@
         <v>1441</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>334</v>
@@ -11874,7 +12826,7 @@
         <v>499</v>
       </c>
       <c r="E84" t="s">
-        <v>1810</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -11882,16 +12834,16 @@
         <v>1442</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>1611</v>
+        <v>1559</v>
       </c>
       <c r="D85" t="s">
         <v>499</v>
       </c>
       <c r="E85" t="s">
-        <v>1811</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -11899,16 +12851,16 @@
         <v>27</v>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>1613</v>
+        <v>1560</v>
       </c>
       <c r="D86" t="s">
         <v>499</v>
       </c>
       <c r="E86" t="s">
-        <v>1812</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -11916,16 +12868,16 @@
         <v>1443</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>1615</v>
+        <v>1561</v>
       </c>
       <c r="D87" t="s">
         <v>499</v>
       </c>
       <c r="E87" t="s">
-        <v>1813</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -11933,16 +12885,16 @@
         <v>1444</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>1616</v>
+        <v>1562</v>
       </c>
       <c r="D88" t="s">
         <v>499</v>
       </c>
       <c r="E88" t="s">
-        <v>997</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -11950,16 +12902,16 @@
         <v>1445</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>1618</v>
+        <v>1563</v>
       </c>
       <c r="D89" t="s">
         <v>499</v>
       </c>
       <c r="E89" t="s">
-        <v>1814</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -11967,16 +12919,16 @@
         <v>1446</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>1620</v>
+        <v>1564</v>
       </c>
       <c r="D90" t="s">
         <v>499</v>
       </c>
       <c r="E90" t="s">
-        <v>1815</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -11984,16 +12936,16 @@
         <v>1447</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>1622</v>
+        <v>1565</v>
       </c>
       <c r="D91" t="s">
         <v>499</v>
       </c>
       <c r="E91" t="s">
-        <v>1816</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -12001,7 +12953,7 @@
         <v>1448</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
         <v>437</v>
@@ -12010,7 +12962,7 @@
         <v>499</v>
       </c>
       <c r="E92" t="s">
-        <v>1817</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -12018,7 +12970,7 @@
         <v>208</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
         <v>420</v>
@@ -12027,7 +12979,7 @@
         <v>499</v>
       </c>
       <c r="E93" t="s">
-        <v>1002</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -12035,16 +12987,16 @@
         <v>1449</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>1625</v>
+        <v>1566</v>
       </c>
       <c r="D94" t="s">
         <v>499</v>
       </c>
       <c r="E94" t="s">
-        <v>1818</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -12052,7 +13004,7 @@
         <v>201</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s">
         <v>414</v>
@@ -12061,7 +13013,7 @@
         <v>499</v>
       </c>
       <c r="E95" t="s">
-        <v>1819</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -12069,7 +13021,7 @@
         <v>34</v>
       </c>
       <c r="B96">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
         <v>54</v>
@@ -12078,7 +13030,7 @@
         <v>499</v>
       </c>
       <c r="E96" t="s">
-        <v>1820</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -12086,7 +13038,7 @@
         <v>1450</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>53</v>
@@ -12095,7 +13047,7 @@
         <v>499</v>
       </c>
       <c r="E97" t="s">
-        <v>1821</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -12103,7 +13055,7 @@
         <v>1202</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>1203</v>
@@ -12112,7 +13064,7 @@
         <v>499</v>
       </c>
       <c r="E98" t="s">
-        <v>1008</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -12120,7 +13072,7 @@
         <v>1451</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>448</v>
@@ -12129,7 +13081,7 @@
         <v>499</v>
       </c>
       <c r="E99" t="s">
-        <v>1009</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -12137,16 +13089,16 @@
         <v>1452</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>1630</v>
+        <v>1567</v>
       </c>
       <c r="D100" t="s">
         <v>499</v>
       </c>
       <c r="E100" t="s">
-        <v>1011</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -12154,16 +13106,16 @@
         <v>1453</v>
       </c>
       <c r="B101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>1631</v>
+        <v>1568</v>
       </c>
       <c r="D101" t="s">
         <v>499</v>
       </c>
       <c r="E101" t="s">
-        <v>1822</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -12171,16 +13123,16 @@
         <v>251</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>1633</v>
+        <v>1569</v>
       </c>
       <c r="D102" t="s">
         <v>499</v>
       </c>
       <c r="E102" t="s">
-        <v>1294</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -12188,7 +13140,7 @@
         <v>110</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>340</v>
@@ -12197,7 +13149,7 @@
         <v>499</v>
       </c>
       <c r="E103" t="s">
-        <v>1823</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -12205,16 +13157,16 @@
         <v>37</v>
       </c>
       <c r="B104">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>1634</v>
+        <v>1570</v>
       </c>
       <c r="D104" t="s">
         <v>499</v>
       </c>
       <c r="E104" t="s">
-        <v>1824</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -12222,7 +13174,7 @@
         <v>1188</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C105" t="s">
         <v>1234</v>
@@ -12231,7 +13183,7 @@
         <v>499</v>
       </c>
       <c r="E105" t="s">
-        <v>1825</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -12239,16 +13191,16 @@
         <v>28</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>1636</v>
+        <v>1571</v>
       </c>
       <c r="D106" t="s">
         <v>499</v>
       </c>
       <c r="E106" t="s">
-        <v>1296</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -12256,16 +13208,16 @@
         <v>1454</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>1638</v>
+        <v>1572</v>
       </c>
       <c r="D107" t="s">
         <v>499</v>
       </c>
       <c r="E107" t="s">
-        <v>1826</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -12273,16 +13225,16 @@
         <v>236</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>1640</v>
+        <v>1573</v>
       </c>
       <c r="D108" t="s">
         <v>499</v>
       </c>
       <c r="E108" t="s">
-        <v>1827</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -12290,7 +13242,7 @@
         <v>1455</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>362</v>
@@ -12299,7 +13251,7 @@
         <v>499</v>
       </c>
       <c r="E109" t="s">
-        <v>1828</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -12307,16 +13259,16 @@
         <v>1456</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>1641</v>
+        <v>1574</v>
       </c>
       <c r="D110" t="s">
         <v>499</v>
       </c>
       <c r="E110" t="s">
-        <v>1829</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -12324,16 +13276,16 @@
         <v>1457</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>1642</v>
+        <v>1575</v>
       </c>
       <c r="D111" t="s">
         <v>499</v>
       </c>
       <c r="E111" t="s">
-        <v>1830</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -12341,16 +13293,16 @@
         <v>1458</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>1644</v>
+        <v>1576</v>
       </c>
       <c r="D112" t="s">
         <v>499</v>
       </c>
       <c r="E112" t="s">
-        <v>502</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -12358,16 +13310,16 @@
         <v>1459</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>1646</v>
+        <v>1577</v>
       </c>
       <c r="D113" t="s">
         <v>499</v>
       </c>
       <c r="E113" t="s">
-        <v>1021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -12375,7 +13327,7 @@
         <v>1460</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
         <v>1167</v>
@@ -12384,7 +13336,7 @@
         <v>499</v>
       </c>
       <c r="E114" t="s">
-        <v>1831</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -12392,16 +13344,16 @@
         <v>1461</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>1648</v>
+        <v>1578</v>
       </c>
       <c r="D115" t="s">
         <v>499</v>
       </c>
       <c r="E115" t="s">
-        <v>1023</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -12409,16 +13361,16 @@
         <v>1462</v>
       </c>
       <c r="B116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>1650</v>
+        <v>1579</v>
       </c>
       <c r="D116" t="s">
         <v>499</v>
       </c>
       <c r="E116" t="s">
-        <v>1026</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -12426,16 +13378,16 @@
         <v>1463</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>1651</v>
+        <v>1580</v>
       </c>
       <c r="D117" t="s">
         <v>499</v>
       </c>
       <c r="E117" t="s">
-        <v>1832</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -12443,16 +13395,16 @@
         <v>1464</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>1653</v>
+        <v>1581</v>
       </c>
       <c r="D118" t="s">
         <v>499</v>
       </c>
       <c r="E118" t="s">
-        <v>1833</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -12460,16 +13412,16 @@
         <v>1465</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>1655</v>
+        <v>1582</v>
       </c>
       <c r="D119" t="s">
         <v>499</v>
       </c>
       <c r="E119" t="s">
-        <v>1029</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -12477,7 +13429,7 @@
         <v>174</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
         <v>392</v>
@@ -12486,7 +13438,7 @@
         <v>499</v>
       </c>
       <c r="E120" t="s">
-        <v>1834</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -12494,7 +13446,7 @@
         <v>182</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>353</v>
@@ -12503,7 +13455,7 @@
         <v>499</v>
       </c>
       <c r="E121" t="s">
-        <v>1030</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -12511,16 +13463,16 @@
         <v>1466</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>1659</v>
+        <v>1583</v>
       </c>
       <c r="D122" t="s">
         <v>499</v>
       </c>
       <c r="E122" t="s">
-        <v>1031</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -12528,16 +13480,16 @@
         <v>1467</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>1661</v>
+        <v>1584</v>
       </c>
       <c r="D123" t="s">
         <v>499</v>
       </c>
       <c r="E123" t="s">
-        <v>1835</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -12545,16 +13497,16 @@
         <v>1468</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>1663</v>
+        <v>1585</v>
       </c>
       <c r="D124" t="s">
         <v>499</v>
       </c>
       <c r="E124" t="s">
-        <v>1036</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -12562,7 +13514,7 @@
         <v>134</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
         <v>360</v>
@@ -12571,7 +13523,7 @@
         <v>499</v>
       </c>
       <c r="E125" t="s">
-        <v>1037</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -12579,16 +13531,16 @@
         <v>1469</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>1597</v>
+        <v>1554</v>
       </c>
       <c r="D126" t="s">
         <v>499</v>
       </c>
       <c r="E126" t="s">
-        <v>1836</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -12596,7 +13548,7 @@
         <v>243</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
         <v>446</v>
@@ -12605,7 +13557,7 @@
         <v>499</v>
       </c>
       <c r="E127" t="s">
-        <v>1038</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -12613,16 +13565,16 @@
         <v>1470</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>1667</v>
+        <v>1586</v>
       </c>
       <c r="D128" t="s">
         <v>499</v>
       </c>
       <c r="E128" t="s">
-        <v>1039</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -12630,7 +13582,7 @@
         <v>168</v>
       </c>
       <c r="B129">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
         <v>1209</v>
@@ -12639,7 +13591,7 @@
         <v>499</v>
       </c>
       <c r="E129" t="s">
-        <v>1837</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -12647,7 +13599,7 @@
         <v>1176</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
         <v>1177</v>
@@ -12656,7 +13608,7 @@
         <v>499</v>
       </c>
       <c r="E130" t="s">
-        <v>1838</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -12664,16 +13616,16 @@
         <v>1471</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>1669</v>
+        <v>1587</v>
       </c>
       <c r="D131" t="s">
         <v>499</v>
       </c>
       <c r="E131" t="s">
-        <v>1042</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -12681,16 +13633,16 @@
         <v>1472</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>1671</v>
+        <v>1588</v>
       </c>
       <c r="D132" t="s">
         <v>499</v>
       </c>
       <c r="E132" t="s">
-        <v>1839</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -12698,7 +13650,7 @@
         <v>1250</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>1245</v>
@@ -12707,7 +13659,7 @@
         <v>499</v>
       </c>
       <c r="E133" t="s">
-        <v>1044</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -12715,16 +13667,16 @@
         <v>1473</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>1672</v>
+        <v>1589</v>
       </c>
       <c r="D134" t="s">
         <v>499</v>
       </c>
       <c r="E134" t="s">
-        <v>1046</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -12732,16 +13684,16 @@
         <v>158</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>1674</v>
+        <v>1590</v>
       </c>
       <c r="D135" t="s">
         <v>499</v>
       </c>
       <c r="E135" t="s">
-        <v>1840</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -12749,16 +13701,16 @@
         <v>275</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>1676</v>
+        <v>1591</v>
       </c>
       <c r="D136" t="s">
         <v>499</v>
       </c>
       <c r="E136" t="s">
-        <v>1048</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -12766,16 +13718,16 @@
         <v>1474</v>
       </c>
       <c r="B137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>1678</v>
+        <v>1592</v>
       </c>
       <c r="D137" t="s">
         <v>499</v>
       </c>
       <c r="E137" t="s">
-        <v>1841</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -12783,7 +13735,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C138" t="s">
         <v>302</v>
@@ -12792,7 +13744,7 @@
         <v>499</v>
       </c>
       <c r="E138" t="s">
-        <v>1842</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -12800,16 +13752,16 @@
         <v>1475</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C139" t="s">
-        <v>1681</v>
+        <v>1593</v>
       </c>
       <c r="D139" t="s">
         <v>499</v>
       </c>
       <c r="E139" t="s">
-        <v>1050</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -12817,7 +13769,7 @@
         <v>1476</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>469</v>
@@ -12826,7 +13778,7 @@
         <v>499</v>
       </c>
       <c r="E140" t="s">
-        <v>1843</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -12834,16 +13786,16 @@
         <v>1477</v>
       </c>
       <c r="B141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>1683</v>
+        <v>1594</v>
       </c>
       <c r="D141" t="s">
         <v>499</v>
       </c>
       <c r="E141" t="s">
-        <v>1844</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -12851,16 +13803,16 @@
         <v>1478</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>1685</v>
+        <v>1595</v>
       </c>
       <c r="D142" t="s">
         <v>499</v>
       </c>
       <c r="E142" t="s">
-        <v>1845</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -12868,16 +13820,16 @@
         <v>1479</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
-        <v>1687</v>
+        <v>1596</v>
       </c>
       <c r="D143" t="s">
         <v>499</v>
       </c>
       <c r="E143" t="s">
-        <v>1846</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -12885,7 +13837,7 @@
         <v>1480</v>
       </c>
       <c r="B144">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
         <v>337</v>
@@ -12894,7 +13846,7 @@
         <v>499</v>
       </c>
       <c r="E144" t="s">
-        <v>1059</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -12902,16 +13854,16 @@
         <v>1481</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>1690</v>
+        <v>1597</v>
       </c>
       <c r="D145" t="s">
         <v>499</v>
       </c>
       <c r="E145" t="s">
-        <v>1060</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -12919,7 +13871,7 @@
         <v>1482</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>1231</v>
@@ -12928,7 +13880,7 @@
         <v>499</v>
       </c>
       <c r="E146" t="s">
-        <v>1847</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -12936,7 +13888,7 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C147" t="s">
         <v>361</v>
@@ -12945,7 +13897,7 @@
         <v>499</v>
       </c>
       <c r="E147" t="s">
-        <v>1063</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -12953,7 +13905,7 @@
         <v>22</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
         <v>47</v>
@@ -12962,7 +13914,7 @@
         <v>499</v>
       </c>
       <c r="E148" t="s">
-        <v>1848</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -12970,16 +13922,16 @@
         <v>1483</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C149" t="s">
-        <v>1693</v>
+        <v>1598</v>
       </c>
       <c r="D149" t="s">
         <v>499</v>
       </c>
       <c r="E149" t="s">
-        <v>1065</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -12987,16 +13939,16 @@
         <v>1484</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
-        <v>1695</v>
+        <v>1599</v>
       </c>
       <c r="D150" t="s">
         <v>499</v>
       </c>
       <c r="E150" t="s">
-        <v>1066</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -13004,7 +13956,7 @@
         <v>142</v>
       </c>
       <c r="B151">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>336</v>
@@ -13013,7 +13965,7 @@
         <v>499</v>
       </c>
       <c r="E151" t="s">
-        <v>1849</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -13021,16 +13973,16 @@
         <v>1157</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>1697</v>
+        <v>1600</v>
       </c>
       <c r="D152" t="s">
         <v>499</v>
       </c>
       <c r="E152" t="s">
-        <v>1850</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -13038,16 +13990,16 @@
         <v>1485</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>1699</v>
+        <v>1601</v>
       </c>
       <c r="D153" t="s">
         <v>499</v>
       </c>
       <c r="E153" t="s">
-        <v>1851</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -13055,7 +14007,7 @@
         <v>1208</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
         <v>336</v>
@@ -13064,7 +14016,7 @@
         <v>499</v>
       </c>
       <c r="E154" t="s">
-        <v>1852</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -13072,16 +14024,16 @@
         <v>1486</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>1701</v>
+        <v>1602</v>
       </c>
       <c r="D155" t="s">
         <v>499</v>
       </c>
       <c r="E155" t="s">
-        <v>1853</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -13089,16 +14041,16 @@
         <v>1487</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>1703</v>
+        <v>1603</v>
       </c>
       <c r="D156" t="s">
         <v>499</v>
       </c>
       <c r="E156" t="s">
-        <v>1854</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -13106,16 +14058,16 @@
         <v>1488</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>1705</v>
+        <v>1604</v>
       </c>
       <c r="D157" t="s">
         <v>499</v>
       </c>
       <c r="E157" t="s">
-        <v>1855</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -13123,7 +14075,7 @@
         <v>1489</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>48</v>
@@ -13132,7 +14084,7 @@
         <v>499</v>
       </c>
       <c r="E158" t="s">
-        <v>1856</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -13140,7 +14092,7 @@
         <v>85</v>
       </c>
       <c r="B159">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
         <v>317</v>
@@ -13149,7 +14101,7 @@
         <v>499</v>
       </c>
       <c r="E159" t="s">
-        <v>1857</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -13157,7 +14109,7 @@
         <v>1490</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
         <v>1354</v>
@@ -13166,7 +14118,7 @@
         <v>499</v>
       </c>
       <c r="E160" t="s">
-        <v>1858</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -13174,7 +14126,7 @@
         <v>1491</v>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
         <v>320</v>
@@ -13183,7 +14135,7 @@
         <v>499</v>
       </c>
       <c r="E161" t="s">
-        <v>1859</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -13191,16 +14143,16 @@
         <v>1492</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>1708</v>
+        <v>1605</v>
       </c>
       <c r="D162" t="s">
         <v>499</v>
       </c>
       <c r="E162" t="s">
-        <v>1860</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -13208,16 +14160,16 @@
         <v>1493</v>
       </c>
       <c r="B163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C163" t="s">
-        <v>1710</v>
+        <v>1606</v>
       </c>
       <c r="D163" t="s">
         <v>499</v>
       </c>
       <c r="E163" t="s">
-        <v>1861</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -13225,16 +14177,16 @@
         <v>1494</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>1712</v>
+        <v>1607</v>
       </c>
       <c r="D164" t="s">
         <v>499</v>
       </c>
       <c r="E164" t="s">
-        <v>1071</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -13242,7 +14194,7 @@
         <v>1495</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
         <v>45</v>
@@ -13251,7 +14203,7 @@
         <v>499</v>
       </c>
       <c r="E165" t="s">
-        <v>1862</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -13259,16 +14211,16 @@
         <v>1496</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>1713</v>
+        <v>1608</v>
       </c>
       <c r="D166" t="s">
         <v>499</v>
       </c>
       <c r="E166" t="s">
-        <v>1863</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -13276,7 +14228,7 @@
         <v>270</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
         <v>467</v>
@@ -13285,7 +14237,7 @@
         <v>499</v>
       </c>
       <c r="E167" t="s">
-        <v>1864</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -13293,16 +14245,16 @@
         <v>1497</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>1716</v>
+        <v>1609</v>
       </c>
       <c r="D168" t="s">
         <v>499</v>
       </c>
       <c r="E168" t="s">
-        <v>1073</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -13310,16 +14262,16 @@
         <v>1498</v>
       </c>
       <c r="B169">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>1717</v>
+        <v>1610</v>
       </c>
       <c r="D169" t="s">
         <v>499</v>
       </c>
       <c r="E169" t="s">
-        <v>1865</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -13327,16 +14279,16 @@
         <v>1159</v>
       </c>
       <c r="B170">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>1719</v>
+        <v>1611</v>
       </c>
       <c r="D170" t="s">
         <v>499</v>
       </c>
       <c r="E170" t="s">
-        <v>1866</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -13344,16 +14296,16 @@
         <v>1499</v>
       </c>
       <c r="B171">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>1721</v>
+        <v>1612</v>
       </c>
       <c r="D171" t="s">
         <v>499</v>
       </c>
       <c r="E171" t="s">
-        <v>1867</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -13361,16 +14313,16 @@
         <v>1500</v>
       </c>
       <c r="B172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>1722</v>
+        <v>1613</v>
       </c>
       <c r="D172" t="s">
         <v>499</v>
       </c>
       <c r="E172" t="s">
-        <v>1868</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -13378,7 +14330,7 @@
         <v>274</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C173" t="s">
         <v>469</v>
@@ -13387,7 +14339,7 @@
         <v>499</v>
       </c>
       <c r="E173" t="s">
-        <v>1080</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -13395,16 +14347,16 @@
         <v>1501</v>
       </c>
       <c r="B174">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>1724</v>
+        <v>1614</v>
       </c>
       <c r="D174" t="s">
         <v>499</v>
       </c>
       <c r="E174" t="s">
-        <v>1094</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -13412,7 +14364,7 @@
         <v>155</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>378</v>
@@ -13421,7 +14373,7 @@
         <v>499</v>
       </c>
       <c r="E175" t="s">
-        <v>1869</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -13429,7 +14381,7 @@
         <v>1502</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>1167</v>
@@ -13438,7 +14390,7 @@
         <v>499</v>
       </c>
       <c r="E176" t="s">
-        <v>1870</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -13446,7 +14398,7 @@
         <v>1503</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C177" t="s">
         <v>437</v>
@@ -13455,7 +14407,7 @@
         <v>499</v>
       </c>
       <c r="E177" t="s">
-        <v>1096</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -13463,16 +14415,16 @@
         <v>162</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C178" t="s">
-        <v>1727</v>
+        <v>1615</v>
       </c>
       <c r="D178" t="s">
         <v>499</v>
       </c>
       <c r="E178" t="s">
-        <v>1097</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -13480,16 +14432,16 @@
         <v>1504</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C179" t="s">
-        <v>1729</v>
+        <v>1616</v>
       </c>
       <c r="D179" t="s">
         <v>499</v>
       </c>
       <c r="E179" t="s">
-        <v>1871</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -13497,16 +14449,16 @@
         <v>1505</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>1730</v>
+        <v>1617</v>
       </c>
       <c r="D180" t="s">
         <v>499</v>
       </c>
       <c r="E180" t="s">
-        <v>1099</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -13514,16 +14466,16 @@
         <v>1506</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C181" t="s">
-        <v>1732</v>
+        <v>1618</v>
       </c>
       <c r="D181" t="s">
         <v>499</v>
       </c>
       <c r="E181" t="s">
-        <v>1100</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -13531,7 +14483,7 @@
         <v>268</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C182" t="s">
         <v>465</v>
@@ -13540,7 +14492,7 @@
         <v>499</v>
       </c>
       <c r="E182" t="s">
-        <v>1101</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -13548,7 +14500,7 @@
         <v>263</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C183" t="s">
         <v>461</v>
@@ -13557,7 +14509,7 @@
         <v>499</v>
       </c>
       <c r="E183" t="s">
-        <v>1103</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -13565,7 +14517,7 @@
         <v>21</v>
       </c>
       <c r="B184">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>39</v>
@@ -13574,7 +14526,7 @@
         <v>499</v>
       </c>
       <c r="E184" t="s">
-        <v>1872</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -13582,7 +14534,7 @@
         <v>266</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C185" t="s">
         <v>464</v>
@@ -13591,7 +14543,7 @@
         <v>499</v>
       </c>
       <c r="E185" t="s">
-        <v>1104</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -13599,7 +14551,7 @@
         <v>1507</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C186" t="s">
         <v>1241</v>
@@ -13608,7 +14560,7 @@
         <v>499</v>
       </c>
       <c r="E186" t="s">
-        <v>1105</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -13616,16 +14568,16 @@
         <v>1508</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C187" t="s">
-        <v>1736</v>
+        <v>1619</v>
       </c>
       <c r="D187" t="s">
         <v>499</v>
       </c>
       <c r="E187" t="s">
-        <v>1873</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -13633,7 +14585,7 @@
         <v>1509</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C188" t="s">
         <v>1168</v>
@@ -13642,7 +14594,7 @@
         <v>499</v>
       </c>
       <c r="E188" t="s">
-        <v>1874</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -13650,16 +14602,16 @@
         <v>1510</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C189" t="s">
-        <v>1738</v>
+        <v>1620</v>
       </c>
       <c r="D189" t="s">
         <v>499</v>
       </c>
       <c r="E189" t="s">
-        <v>1875</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -13667,16 +14619,16 @@
         <v>1511</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C190" t="s">
-        <v>1739</v>
+        <v>1621</v>
       </c>
       <c r="D190" t="s">
         <v>499</v>
       </c>
       <c r="E190" t="s">
-        <v>1876</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -13684,16 +14636,16 @@
         <v>1512</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>1741</v>
+        <v>1622</v>
       </c>
       <c r="D191" t="s">
         <v>499</v>
       </c>
       <c r="E191" t="s">
-        <v>1112</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -13701,16 +14653,16 @@
         <v>1513</v>
       </c>
       <c r="B192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C192" t="s">
-        <v>1743</v>
+        <v>1623</v>
       </c>
       <c r="D192" t="s">
         <v>499</v>
       </c>
       <c r="E192" t="s">
-        <v>1113</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -13718,7 +14670,7 @@
         <v>1514</v>
       </c>
       <c r="B193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C193" t="s">
         <v>373</v>
@@ -13727,7 +14679,7 @@
         <v>499</v>
       </c>
       <c r="E193" t="s">
-        <v>1877</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -13735,7 +14687,7 @@
         <v>1515</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C194" t="s">
         <v>458</v>
@@ -13744,7 +14696,7 @@
         <v>499</v>
       </c>
       <c r="E194" t="s">
-        <v>1115</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -13752,7 +14704,7 @@
         <v>105</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C195" t="s">
         <v>1308</v>
@@ -13761,7 +14713,7 @@
         <v>499</v>
       </c>
       <c r="E195" t="s">
-        <v>1116</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -13769,16 +14721,16 @@
         <v>292</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>1746</v>
+        <v>1624</v>
       </c>
       <c r="D196" t="s">
         <v>499</v>
       </c>
       <c r="E196" t="s">
-        <v>1878</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -13786,7 +14738,7 @@
         <v>99</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>1363</v>
@@ -13795,7 +14747,7 @@
         <v>499</v>
       </c>
       <c r="E197" t="s">
-        <v>1879</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -13803,7 +14755,7 @@
         <v>211</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C198" t="s">
         <v>46</v>
@@ -13812,7 +14764,7 @@
         <v>499</v>
       </c>
       <c r="E198" t="s">
-        <v>1880</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -13820,7 +14772,7 @@
         <v>1232</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
         <v>1168</v>
@@ -13829,7 +14781,7 @@
         <v>499</v>
       </c>
       <c r="E199" t="s">
-        <v>1881</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -13837,7 +14789,7 @@
         <v>285</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C200" t="s">
         <v>477</v>
@@ -13846,7 +14798,7 @@
         <v>499</v>
       </c>
       <c r="E200" t="s">
-        <v>1882</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -13854,16 +14806,16 @@
         <v>1516</v>
       </c>
       <c r="B201">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C201" t="s">
-        <v>1750</v>
+        <v>1625</v>
       </c>
       <c r="D201" t="s">
         <v>499</v>
       </c>
       <c r="E201" t="s">
-        <v>1883</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -13871,7 +14823,7 @@
         <v>140</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C202" t="s">
         <v>366</v>
@@ -13880,7 +14832,7 @@
         <v>499</v>
       </c>
       <c r="E202" t="s">
-        <v>1884</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -13888,7 +14840,7 @@
         <v>159</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C203" t="s">
         <v>381</v>
@@ -13897,7 +14849,7 @@
         <v>499</v>
       </c>
       <c r="E203" t="s">
-        <v>1123</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -13905,16 +14857,16 @@
         <v>1517</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>1752</v>
+        <v>1626</v>
       </c>
       <c r="D204" t="s">
         <v>499</v>
       </c>
       <c r="E204" t="s">
-        <v>1885</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -13922,7 +14874,7 @@
         <v>212</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C205" t="s">
         <v>422</v>
@@ -13931,7 +14883,7 @@
         <v>499</v>
       </c>
       <c r="E205" t="s">
-        <v>1886</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -13939,7 +14891,7 @@
         <v>198</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C206" t="s">
         <v>56</v>
@@ -13948,7 +14900,7 @@
         <v>499</v>
       </c>
       <c r="E206" t="s">
-        <v>1887</v>
+        <v>2111</v>
       </c>
     </row>
   </sheetData>
@@ -14132,42 +15084,42 @@
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="73" t="s">
-        <v>438</v>
+        <v>816</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>1519</v>
+        <v>1629</v>
       </c>
       <c r="G4" s="73" t="s">
-        <v>1521</v>
+        <v>1631</v>
       </c>
       <c r="H4" s="73"/>
       <c r="I4" s="73" t="s">
-        <v>60</v>
+        <v>547</v>
       </c>
       <c r="J4" s="73" t="s">
-        <v>1523</v>
+        <v>1634</v>
       </c>
       <c r="K4" s="73" t="s">
-        <v>1525</v>
+        <v>1636</v>
       </c>
       <c r="L4" s="73" t="s">
-        <v>1527</v>
+        <v>1638</v>
       </c>
       <c r="M4" s="73"/>
       <c r="N4" s="73" t="s">
-        <v>405</v>
+        <v>742</v>
       </c>
       <c r="O4" s="73" t="s">
-        <v>303</v>
+        <v>515</v>
       </c>
       <c r="P4" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="Q4" s="73" t="s">
-        <v>1530</v>
+        <v>1641</v>
       </c>
       <c r="R4" s="73"/>
       <c r="S4" s="19"/>
@@ -14229,42 +15181,42 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="70" t="s">
-        <v>1518</v>
+        <v>1627</v>
       </c>
       <c r="E6" s="70" t="s">
-        <v>1353</v>
+        <v>1628</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>1520</v>
+        <v>1630</v>
       </c>
       <c r="G6" s="70" t="s">
-        <v>1522</v>
+        <v>1632</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70" t="s">
-        <v>1320</v>
+        <v>1633</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>1524</v>
+        <v>1635</v>
       </c>
       <c r="K6" s="70" t="s">
-        <v>1526</v>
+        <v>1637</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>1528</v>
+        <v>1639</v>
       </c>
       <c r="M6" s="70"/>
       <c r="N6" s="70" t="s">
-        <v>1529</v>
+        <v>1640</v>
       </c>
       <c r="O6" s="70" t="s">
-        <v>303</v>
+        <v>515</v>
       </c>
       <c r="P6" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="Q6" s="70" t="s">
-        <v>1530</v>
+        <v>1641</v>
       </c>
       <c r="R6" s="70"/>
       <c r="S6" s="25"/>
@@ -14294,44 +15246,44 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="73" t="s">
-        <v>1531</v>
+        <v>1642</v>
       </c>
       <c r="E8" s="73" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>1531</v>
+        <v>1642</v>
       </c>
       <c r="G8" s="73" t="s">
-        <v>1533</v>
+        <v>1644</v>
       </c>
       <c r="H8" s="73" t="s">
-        <v>1207</v>
+        <v>1646</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>1535</v>
+        <v>1648</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="K8" s="73" t="s">
-        <v>425</v>
+        <v>790</v>
       </c>
       <c r="L8" s="73" t="s">
-        <v>304</v>
+        <v>517</v>
       </c>
       <c r="M8" s="73"/>
       <c r="N8" s="73" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="O8" s="73" t="s">
-        <v>1538</v>
+        <v>1651</v>
       </c>
       <c r="P8" s="73" t="s">
-        <v>61</v>
+        <v>655</v>
       </c>
       <c r="Q8" s="73" t="s">
-        <v>1173</v>
+        <v>1654</v>
       </c>
       <c r="R8" s="73"/>
       <c r="S8" s="19"/>
@@ -14394,44 +15346,44 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="70" t="s">
-        <v>1532</v>
+        <v>1643</v>
       </c>
       <c r="E10" s="70" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>1532</v>
+        <v>1643</v>
       </c>
       <c r="G10" s="70" t="s">
-        <v>1534</v>
+        <v>1645</v>
       </c>
       <c r="H10" s="70" t="s">
-        <v>1377</v>
+        <v>1647</v>
       </c>
       <c r="I10" s="70" t="s">
-        <v>1535</v>
+        <v>1648</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>1536</v>
+        <v>1649</v>
       </c>
       <c r="L10" s="70" t="s">
-        <v>1537</v>
+        <v>1650</v>
       </c>
       <c r="M10" s="70"/>
       <c r="N10" s="70" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="O10" s="70" t="s">
-        <v>1539</v>
+        <v>1652</v>
       </c>
       <c r="P10" s="70" t="s">
-        <v>1540</v>
+        <v>1653</v>
       </c>
       <c r="Q10" s="70" t="s">
-        <v>1389</v>
+        <v>1655</v>
       </c>
       <c r="R10" s="70"/>
       <c r="S10" s="31"/>
@@ -14460,45 +15412,45 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="73" t="s">
-        <v>1541</v>
+        <v>1656</v>
       </c>
       <c r="E12" s="73" t="s">
-        <v>329</v>
+        <v>577</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>479</v>
+        <v>908</v>
       </c>
       <c r="G12" s="73" t="s">
-        <v>49</v>
+        <v>784</v>
       </c>
       <c r="H12" s="73"/>
       <c r="I12" s="73" t="s">
-        <v>1546</v>
+        <v>1661</v>
       </c>
       <c r="J12" s="73" t="s">
-        <v>1547</v>
+        <v>1663</v>
       </c>
       <c r="K12" s="73" t="s">
-        <v>485</v>
+        <v>1665</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>435</v>
+        <v>810</v>
       </c>
       <c r="M12" s="73"/>
       <c r="N12" s="73" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="O12" s="73" t="s">
-        <v>1550</v>
+        <v>1668</v>
       </c>
       <c r="P12" s="73" t="s">
-        <v>1552</v>
+        <v>1670</v>
       </c>
       <c r="Q12" s="73" t="s">
-        <v>1554</v>
+        <v>1672</v>
       </c>
       <c r="R12" s="73" t="s">
-        <v>1207</v>
+        <v>1646</v>
       </c>
       <c r="S12" s="19"/>
       <c r="V12" s="63"/>
@@ -14559,45 +15511,45 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="70" t="s">
-        <v>1542</v>
+        <v>1657</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>1543</v>
+        <v>1658</v>
       </c>
       <c r="F14" s="70" t="s">
-        <v>1544</v>
+        <v>1659</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>1545</v>
+        <v>1660</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70" t="s">
-        <v>1300</v>
+        <v>1662</v>
       </c>
       <c r="J14" s="70" t="s">
-        <v>1548</v>
+        <v>1664</v>
       </c>
       <c r="K14" s="70" t="s">
-        <v>1549</v>
+        <v>1666</v>
       </c>
       <c r="L14" s="70" t="s">
-        <v>435</v>
+        <v>810</v>
       </c>
       <c r="M14" s="70"/>
       <c r="N14" s="70" t="s">
-        <v>1346</v>
+        <v>1667</v>
       </c>
       <c r="O14" s="70" t="s">
-        <v>1551</v>
+        <v>1669</v>
       </c>
       <c r="P14" s="70" t="s">
-        <v>1553</v>
+        <v>1671</v>
       </c>
       <c r="Q14" s="70" t="s">
-        <v>1555</v>
+        <v>1673</v>
       </c>
       <c r="R14" s="70" t="s">
-        <v>1377</v>
+        <v>1647</v>
       </c>
       <c r="S14" s="31"/>
       <c r="V14" s="63"/>
@@ -14625,42 +15577,42 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="73" t="s">
-        <v>1556</v>
+        <v>1674</v>
       </c>
       <c r="E16" s="73" t="s">
-        <v>1215</v>
+        <v>1676</v>
       </c>
       <c r="F16" s="73"/>
       <c r="G16" s="73" t="s">
-        <v>405</v>
+        <v>742</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>1183</v>
+        <v>1678</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>307</v>
+        <v>523</v>
       </c>
       <c r="K16" s="73"/>
       <c r="L16" s="73" t="s">
-        <v>1558</v>
+        <v>1681</v>
       </c>
       <c r="M16" s="73" t="s">
-        <v>1552</v>
+        <v>1670</v>
       </c>
       <c r="N16" s="73" t="s">
-        <v>1560</v>
+        <v>1683</v>
       </c>
       <c r="O16" s="73" t="s">
-        <v>323</v>
+        <v>563</v>
       </c>
       <c r="P16" s="73" t="s">
-        <v>1563</v>
+        <v>1686</v>
       </c>
       <c r="Q16" s="73" t="s">
-        <v>1565</v>
+        <v>1688</v>
       </c>
       <c r="R16" s="73"/>
       <c r="S16" s="19"/>
@@ -14722,42 +15674,42 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="70" t="s">
-        <v>1557</v>
+        <v>1675</v>
       </c>
       <c r="E18" s="70" t="s">
-        <v>1376</v>
+        <v>1677</v>
       </c>
       <c r="F18" s="70"/>
       <c r="G18" s="70" t="s">
-        <v>1529</v>
+        <v>1640</v>
       </c>
       <c r="H18" s="70" t="s">
-        <v>1350</v>
+        <v>1679</v>
       </c>
       <c r="I18" s="70" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="J18" s="70" t="s">
-        <v>1359</v>
+        <v>1680</v>
       </c>
       <c r="K18" s="70"/>
       <c r="L18" s="70" t="s">
-        <v>1559</v>
+        <v>1682</v>
       </c>
       <c r="M18" s="70" t="s">
-        <v>1553</v>
+        <v>1671</v>
       </c>
       <c r="N18" s="70" t="s">
-        <v>1561</v>
+        <v>1684</v>
       </c>
       <c r="O18" s="70" t="s">
-        <v>1562</v>
+        <v>1685</v>
       </c>
       <c r="P18" s="70" t="s">
-        <v>1564</v>
+        <v>1687</v>
       </c>
       <c r="Q18" s="70" t="s">
-        <v>1566</v>
+        <v>1689</v>
       </c>
       <c r="R18" s="70"/>
       <c r="S18" s="31"/>
@@ -14786,45 +15738,45 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="73" t="s">
-        <v>1567</v>
+        <v>1690</v>
       </c>
       <c r="E20" s="73" t="s">
-        <v>1569</v>
+        <v>1692</v>
       </c>
       <c r="F20" s="73" t="s">
-        <v>1571</v>
+        <v>1694</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>1558</v>
+        <v>1681</v>
       </c>
       <c r="H20" s="73"/>
       <c r="I20" s="73" t="s">
-        <v>1573</v>
+        <v>1696</v>
       </c>
       <c r="J20" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="K20" s="73" t="s">
-        <v>1575</v>
+        <v>1699</v>
       </c>
       <c r="L20" s="73" t="s">
-        <v>323</v>
+        <v>563</v>
       </c>
       <c r="M20" s="73" t="s">
-        <v>1577</v>
+        <v>1701</v>
       </c>
       <c r="N20" s="73" t="s">
-        <v>1578</v>
+        <v>1702</v>
       </c>
       <c r="O20" s="73" t="s">
-        <v>1580</v>
+        <v>1704</v>
       </c>
       <c r="P20" s="73"/>
       <c r="Q20" s="73" t="s">
-        <v>1582</v>
+        <v>1706</v>
       </c>
       <c r="R20" s="73" t="s">
-        <v>1583</v>
+        <v>1707</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="63"/>
@@ -14885,45 +15837,45 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="70" t="s">
-        <v>1568</v>
+        <v>1691</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>1570</v>
+        <v>1693</v>
       </c>
       <c r="F22" s="70" t="s">
-        <v>1572</v>
+        <v>1695</v>
       </c>
       <c r="G22" s="70" t="s">
-        <v>1559</v>
+        <v>1682</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70" t="s">
-        <v>1574</v>
+        <v>1697</v>
       </c>
       <c r="J22" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="K22" s="70" t="s">
-        <v>1576</v>
+        <v>1700</v>
       </c>
       <c r="L22" s="70" t="s">
-        <v>1562</v>
+        <v>1685</v>
       </c>
       <c r="M22" s="70" t="s">
-        <v>1577</v>
+        <v>1701</v>
       </c>
       <c r="N22" s="70" t="s">
-        <v>1579</v>
+        <v>1703</v>
       </c>
       <c r="O22" s="70" t="s">
-        <v>1581</v>
+        <v>1705</v>
       </c>
       <c r="P22" s="70"/>
       <c r="Q22" s="70" t="s">
-        <v>1582</v>
+        <v>1706</v>
       </c>
       <c r="R22" s="70" t="s">
-        <v>1584</v>
+        <v>1708</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="63"/>
@@ -14951,45 +15903,45 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="73" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="E24" s="73" t="s">
-        <v>51</v>
+        <v>512</v>
       </c>
       <c r="F24" s="73"/>
       <c r="G24" s="73" t="s">
-        <v>1169</v>
+        <v>1711</v>
       </c>
       <c r="H24" s="73" t="s">
-        <v>1247</v>
+        <v>1712</v>
       </c>
       <c r="I24" s="73" t="s">
-        <v>331</v>
+        <v>581</v>
       </c>
       <c r="J24" s="73" t="s">
-        <v>307</v>
+        <v>523</v>
       </c>
       <c r="K24" s="73" t="s">
-        <v>1587</v>
+        <v>1714</v>
       </c>
       <c r="L24" s="73" t="s">
-        <v>329</v>
+        <v>577</v>
       </c>
       <c r="M24" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="N24" s="73" t="s">
-        <v>1589</v>
+        <v>1716</v>
       </c>
       <c r="O24" s="73"/>
       <c r="P24" s="73" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="Q24" s="73" t="s">
-        <v>1577</v>
+        <v>1701</v>
       </c>
       <c r="R24" s="73" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="S24" s="19"/>
       <c r="V24" s="63"/>
@@ -15050,45 +16002,45 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="70" t="s">
-        <v>1585</v>
+        <v>1709</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>1586</v>
+        <v>1710</v>
       </c>
       <c r="F26" s="70"/>
       <c r="G26" s="70" t="s">
-        <v>1169</v>
+        <v>1711</v>
       </c>
       <c r="H26" s="70" t="s">
-        <v>1390</v>
+        <v>1713</v>
       </c>
       <c r="I26" s="70" t="s">
-        <v>331</v>
+        <v>581</v>
       </c>
       <c r="J26" s="70" t="s">
-        <v>1359</v>
+        <v>1680</v>
       </c>
       <c r="K26" s="70" t="s">
-        <v>1588</v>
+        <v>1715</v>
       </c>
       <c r="L26" s="70" t="s">
-        <v>1543</v>
+        <v>1658</v>
       </c>
       <c r="M26" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="N26" s="70" t="s">
-        <v>1590</v>
+        <v>1717</v>
       </c>
       <c r="O26" s="70"/>
       <c r="P26" s="70" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="Q26" s="70" t="s">
-        <v>1577</v>
+        <v>1701</v>
       </c>
       <c r="R26" s="70" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="S26" s="31"/>
       <c r="V26" s="63"/>
@@ -15120,29 +16072,29 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="73" t="s">
-        <v>1591</v>
+        <v>1719</v>
       </c>
       <c r="E28" s="73"/>
       <c r="F28" s="73" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="G28" s="73" t="s">
-        <v>1594</v>
+        <v>1722</v>
       </c>
       <c r="H28" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="I28" s="73" t="s">
-        <v>1596</v>
+        <v>1724</v>
       </c>
       <c r="J28" s="73" t="s">
-        <v>1597</v>
+        <v>1725</v>
       </c>
       <c r="K28" s="73" t="s">
-        <v>416</v>
+        <v>766</v>
       </c>
       <c r="L28" s="73" t="s">
-        <v>380</v>
+        <v>691</v>
       </c>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
@@ -15211,29 +16163,29 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="70" t="s">
-        <v>1592</v>
+        <v>1720</v>
       </c>
       <c r="E30" s="70"/>
       <c r="F30" s="70" t="s">
-        <v>1593</v>
+        <v>1721</v>
       </c>
       <c r="G30" s="70" t="s">
-        <v>1595</v>
+        <v>1723</v>
       </c>
       <c r="H30" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="I30" s="70" t="s">
-        <v>350</v>
+        <v>627</v>
       </c>
       <c r="J30" s="70" t="s">
-        <v>1598</v>
+        <v>1726</v>
       </c>
       <c r="K30" s="70" t="s">
-        <v>416</v>
+        <v>766</v>
       </c>
       <c r="L30" s="70" t="s">
-        <v>1599</v>
+        <v>1727</v>
       </c>
       <c r="M30" s="70"/>
       <c r="N30" s="70"/>
@@ -15366,43 +16318,43 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="73" t="s">
-        <v>53</v>
+        <v>896</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>1238</v>
+        <v>1729</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>1173</v>
+        <v>1654</v>
       </c>
       <c r="G36" s="73"/>
       <c r="H36" s="73" t="s">
-        <v>1601</v>
+        <v>1730</v>
       </c>
       <c r="I36" s="73" t="s">
-        <v>1603</v>
+        <v>1732</v>
       </c>
       <c r="J36" s="73" t="s">
-        <v>359</v>
+        <v>645</v>
       </c>
       <c r="K36" s="73" t="s">
-        <v>1560</v>
+        <v>1683</v>
       </c>
       <c r="L36" s="73"/>
       <c r="M36" s="73" t="s">
-        <v>1605</v>
+        <v>1734</v>
       </c>
       <c r="N36" s="73" t="s">
-        <v>389</v>
+        <v>708</v>
       </c>
       <c r="O36" s="73" t="s">
-        <v>40</v>
+        <v>543</v>
       </c>
       <c r="P36" s="73" t="s">
-        <v>1596</v>
+        <v>1724</v>
       </c>
       <c r="Q36" s="73"/>
       <c r="R36" s="73" t="s">
-        <v>1607</v>
+        <v>1736</v>
       </c>
       <c r="S36" s="19"/>
       <c r="V36" s="63"/>
@@ -15463,43 +16415,43 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="70" t="s">
-        <v>1600</v>
+        <v>1728</v>
       </c>
       <c r="E38" s="70" t="s">
-        <v>1238</v>
+        <v>1729</v>
       </c>
       <c r="F38" s="70" t="s">
-        <v>1389</v>
+        <v>1655</v>
       </c>
       <c r="G38" s="70"/>
       <c r="H38" s="70" t="s">
-        <v>1602</v>
+        <v>1731</v>
       </c>
       <c r="I38" s="70" t="s">
-        <v>1604</v>
+        <v>1733</v>
       </c>
       <c r="J38" s="70" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="K38" s="70" t="s">
-        <v>1561</v>
+        <v>1684</v>
       </c>
       <c r="L38" s="70"/>
       <c r="M38" s="70" t="s">
-        <v>1606</v>
+        <v>1735</v>
       </c>
       <c r="N38" s="70" t="s">
-        <v>389</v>
+        <v>708</v>
       </c>
       <c r="O38" s="70" t="s">
-        <v>1353</v>
+        <v>1628</v>
       </c>
       <c r="P38" s="70" t="s">
-        <v>350</v>
+        <v>627</v>
       </c>
       <c r="Q38" s="70"/>
       <c r="R38" s="70" t="s">
-        <v>1608</v>
+        <v>1737</v>
       </c>
       <c r="S38" s="31"/>
       <c r="V38" s="63"/>
@@ -15527,45 +16479,45 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="73" t="s">
-        <v>339</v>
+        <v>603</v>
       </c>
       <c r="E40" s="73" t="s">
-        <v>334</v>
+        <v>591</v>
       </c>
       <c r="F40" s="73" t="s">
-        <v>1611</v>
+        <v>1740</v>
       </c>
       <c r="G40" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H40" s="73" t="s">
-        <v>1613</v>
+        <v>1742</v>
       </c>
       <c r="I40" s="73"/>
       <c r="J40" s="73" t="s">
-        <v>1615</v>
+        <v>1744</v>
       </c>
       <c r="K40" s="73" t="s">
-        <v>1616</v>
+        <v>1745</v>
       </c>
       <c r="L40" s="73" t="s">
-        <v>1618</v>
+        <v>1747</v>
       </c>
       <c r="M40" s="73" t="s">
-        <v>1620</v>
+        <v>1749</v>
       </c>
       <c r="N40" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O40" s="73" t="s">
-        <v>1589</v>
+        <v>1716</v>
       </c>
       <c r="P40" s="73"/>
       <c r="Q40" s="73" t="s">
-        <v>1622</v>
+        <v>1751</v>
       </c>
       <c r="R40" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="S40" s="19"/>
       <c r="V40" s="63"/>
@@ -15626,45 +16578,45 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
       <c r="D42" s="70" t="s">
-        <v>1609</v>
+        <v>1738</v>
       </c>
       <c r="E42" s="70" t="s">
-        <v>1610</v>
+        <v>1739</v>
       </c>
       <c r="F42" s="70" t="s">
-        <v>1612</v>
+        <v>1741</v>
       </c>
       <c r="G42" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="H42" s="70" t="s">
-        <v>1614</v>
+        <v>1743</v>
       </c>
       <c r="I42" s="70"/>
       <c r="J42" s="70" t="s">
-        <v>332</v>
+        <v>583</v>
       </c>
       <c r="K42" s="70" t="s">
-        <v>1617</v>
+        <v>1746</v>
       </c>
       <c r="L42" s="70" t="s">
-        <v>1619</v>
+        <v>1748</v>
       </c>
       <c r="M42" s="70" t="s">
-        <v>1621</v>
+        <v>1750</v>
       </c>
       <c r="N42" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O42" s="70" t="s">
-        <v>1590</v>
+        <v>1717</v>
       </c>
       <c r="P42" s="70"/>
       <c r="Q42" s="70" t="s">
-        <v>1623</v>
+        <v>1752</v>
       </c>
       <c r="R42" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="63"/>
@@ -15692,45 +16644,45 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="73" t="s">
-        <v>437</v>
+        <v>814</v>
       </c>
       <c r="E44" s="73" t="s">
-        <v>420</v>
+        <v>774</v>
       </c>
       <c r="F44" s="73" t="s">
-        <v>1625</v>
+        <v>1754</v>
       </c>
       <c r="G44" s="73" t="s">
-        <v>414</v>
+        <v>762</v>
       </c>
       <c r="H44" s="73"/>
       <c r="I44" s="73" t="s">
-        <v>1594</v>
+        <v>1722</v>
       </c>
       <c r="J44" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="K44" s="73" t="s">
-        <v>54</v>
+        <v>673</v>
       </c>
       <c r="L44" s="73" t="s">
-        <v>53</v>
+        <v>896</v>
       </c>
       <c r="M44" s="73" t="s">
-        <v>1203</v>
+        <v>1758</v>
       </c>
       <c r="N44" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O44" s="73" t="s">
-        <v>448</v>
+        <v>836</v>
       </c>
       <c r="P44" s="73"/>
       <c r="Q44" s="73" t="s">
-        <v>1630</v>
+        <v>1761</v>
       </c>
       <c r="R44" s="73" t="s">
-        <v>1631</v>
+        <v>1762</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="63"/>
@@ -15791,45 +16743,45 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="70" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>1624</v>
+        <v>1753</v>
       </c>
       <c r="F46" s="70" t="s">
-        <v>1626</v>
+        <v>1755</v>
       </c>
       <c r="G46" s="70" t="s">
-        <v>1627</v>
+        <v>1756</v>
       </c>
       <c r="H46" s="70"/>
       <c r="I46" s="70" t="s">
-        <v>1595</v>
+        <v>1723</v>
       </c>
       <c r="J46" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="K46" s="70" t="s">
-        <v>1628</v>
+        <v>1757</v>
       </c>
       <c r="L46" s="70" t="s">
-        <v>1600</v>
+        <v>1728</v>
       </c>
       <c r="M46" s="70" t="s">
-        <v>1348</v>
+        <v>1759</v>
       </c>
       <c r="N46" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O46" s="70" t="s">
-        <v>1629</v>
+        <v>1760</v>
       </c>
       <c r="P46" s="70"/>
       <c r="Q46" s="70" t="s">
-        <v>454</v>
+        <v>850</v>
       </c>
       <c r="R46" s="70" t="s">
-        <v>1632</v>
+        <v>1763</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="63"/>
@@ -15857,10 +16809,10 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="73" t="s">
-        <v>1633</v>
+        <v>1764</v>
       </c>
       <c r="E48" s="73" t="s">
-        <v>1173</v>
+        <v>1654</v>
       </c>
       <c r="F48" s="73"/>
       <c r="G48" s="73"/>
@@ -15914,10 +16866,10 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="70" t="s">
-        <v>1633</v>
+        <v>1764</v>
       </c>
       <c r="E50" s="70" t="s">
-        <v>1389</v>
+        <v>1655</v>
       </c>
       <c r="F50" s="70"/>
       <c r="G50" s="70"/>
@@ -16045,45 +16997,45 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="73" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="E56" s="73" t="s">
-        <v>1634</v>
+        <v>1765</v>
       </c>
       <c r="F56" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="G56" s="73" t="s">
-        <v>1234</v>
+        <v>1767</v>
       </c>
       <c r="H56" s="73" t="s">
-        <v>1636</v>
+        <v>1769</v>
       </c>
       <c r="I56" s="73"/>
       <c r="J56" s="73" t="s">
-        <v>1615</v>
+        <v>1744</v>
       </c>
       <c r="K56" s="73" t="s">
-        <v>1607</v>
+        <v>1736</v>
       </c>
       <c r="L56" s="73" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="M56" s="73" t="s">
-        <v>1638</v>
+        <v>1771</v>
       </c>
       <c r="N56" s="73"/>
       <c r="O56" s="73" t="s">
-        <v>1640</v>
+        <v>1773</v>
       </c>
       <c r="P56" s="73" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="Q56" s="73" t="s">
-        <v>1641</v>
+        <v>1774</v>
       </c>
       <c r="R56" s="73" t="s">
-        <v>414</v>
+        <v>762</v>
       </c>
       <c r="S56" s="19"/>
       <c r="V56" s="63"/>
@@ -16144,45 +17096,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="70" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="E58" s="70" t="s">
-        <v>1635</v>
+        <v>1766</v>
       </c>
       <c r="F58" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="G58" s="70" t="s">
-        <v>1381</v>
+        <v>1768</v>
       </c>
       <c r="H58" s="70" t="s">
-        <v>1637</v>
+        <v>1770</v>
       </c>
       <c r="I58" s="70"/>
       <c r="J58" s="70" t="s">
-        <v>332</v>
+        <v>583</v>
       </c>
       <c r="K58" s="70" t="s">
-        <v>1608</v>
+        <v>1737</v>
       </c>
       <c r="L58" s="70" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="M58" s="70" t="s">
-        <v>1639</v>
+        <v>1772</v>
       </c>
       <c r="N58" s="70"/>
       <c r="O58" s="70" t="s">
-        <v>1640</v>
+        <v>1773</v>
       </c>
       <c r="P58" s="70" t="s">
-        <v>1346</v>
+        <v>1667</v>
       </c>
       <c r="Q58" s="70" t="s">
-        <v>1641</v>
+        <v>1774</v>
       </c>
       <c r="R58" s="70" t="s">
-        <v>1627</v>
+        <v>1756</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="63"/>
@@ -16210,42 +17162,42 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="73" t="s">
-        <v>1642</v>
+        <v>1775</v>
       </c>
       <c r="E60" s="73"/>
       <c r="F60" s="73" t="s">
-        <v>1644</v>
+        <v>1777</v>
       </c>
       <c r="G60" s="73" t="s">
-        <v>1646</v>
+        <v>1779</v>
       </c>
       <c r="H60" s="73" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="I60" s="73" t="s">
-        <v>1167</v>
+        <v>1781</v>
       </c>
       <c r="J60" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="K60" s="73" t="s">
-        <v>1648</v>
+        <v>1783</v>
       </c>
       <c r="L60" s="73"/>
       <c r="M60" s="73" t="s">
-        <v>1640</v>
+        <v>1773</v>
       </c>
       <c r="N60" s="73" t="s">
-        <v>1650</v>
+        <v>1785</v>
       </c>
       <c r="O60" s="73" t="s">
-        <v>1651</v>
+        <v>1786</v>
       </c>
       <c r="P60" s="73" t="s">
-        <v>1622</v>
+        <v>1751</v>
       </c>
       <c r="Q60" s="73" t="s">
-        <v>1653</v>
+        <v>1788</v>
       </c>
       <c r="R60" s="73"/>
       <c r="S60" s="19"/>
@@ -16307,42 +17259,42 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="70" t="s">
-        <v>1643</v>
+        <v>1776</v>
       </c>
       <c r="E62" s="70"/>
       <c r="F62" s="70" t="s">
-        <v>1645</v>
+        <v>1778</v>
       </c>
       <c r="G62" s="70" t="s">
-        <v>1647</v>
+        <v>1780</v>
       </c>
       <c r="H62" s="70" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="I62" s="70" t="s">
-        <v>1387</v>
+        <v>1782</v>
       </c>
       <c r="J62" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="K62" s="70" t="s">
-        <v>1649</v>
+        <v>1784</v>
       </c>
       <c r="L62" s="70"/>
       <c r="M62" s="70" t="s">
-        <v>1640</v>
+        <v>1773</v>
       </c>
       <c r="N62" s="70" t="s">
-        <v>1650</v>
+        <v>1785</v>
       </c>
       <c r="O62" s="70" t="s">
-        <v>1652</v>
+        <v>1787</v>
       </c>
       <c r="P62" s="70" t="s">
-        <v>1623</v>
+        <v>1752</v>
       </c>
       <c r="Q62" s="70" t="s">
-        <v>1654</v>
+        <v>1789</v>
       </c>
       <c r="R62" s="70"/>
       <c r="S62" s="31"/>
@@ -16371,45 +17323,45 @@
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="73" t="s">
-        <v>1655</v>
+        <v>1790</v>
       </c>
       <c r="E64" s="73" t="s">
-        <v>392</v>
+        <v>714</v>
       </c>
       <c r="F64" s="73" t="s">
-        <v>353</v>
+        <v>633</v>
       </c>
       <c r="G64" s="73" t="s">
-        <v>1659</v>
+        <v>1794</v>
       </c>
       <c r="H64" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="I64" s="73" t="s">
-        <v>1661</v>
+        <v>1796</v>
       </c>
       <c r="J64" s="73"/>
       <c r="K64" s="73" t="s">
-        <v>1169</v>
+        <v>1711</v>
       </c>
       <c r="L64" s="73" t="s">
-        <v>362</v>
+        <v>651</v>
       </c>
       <c r="M64" s="73" t="s">
-        <v>1663</v>
+        <v>1798</v>
       </c>
       <c r="N64" s="73" t="s">
-        <v>360</v>
+        <v>647</v>
       </c>
       <c r="O64" s="73" t="s">
-        <v>1597</v>
+        <v>1725</v>
       </c>
       <c r="P64" s="73"/>
       <c r="Q64" s="73" t="s">
-        <v>446</v>
+        <v>832</v>
       </c>
       <c r="R64" s="73" t="s">
-        <v>1667</v>
+        <v>1802</v>
       </c>
       <c r="S64" s="19"/>
       <c r="V64" s="63"/>
@@ -16470,45 +17422,45 @@
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
       <c r="D66" s="70" t="s">
-        <v>1656</v>
+        <v>1791</v>
       </c>
       <c r="E66" s="70" t="s">
-        <v>1657</v>
+        <v>1792</v>
       </c>
       <c r="F66" s="70" t="s">
-        <v>1658</v>
+        <v>1793</v>
       </c>
       <c r="G66" s="70" t="s">
-        <v>1660</v>
+        <v>1795</v>
       </c>
       <c r="H66" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="I66" s="70" t="s">
-        <v>1662</v>
+        <v>1797</v>
       </c>
       <c r="J66" s="70"/>
       <c r="K66" s="70" t="s">
-        <v>1169</v>
+        <v>1711</v>
       </c>
       <c r="L66" s="70" t="s">
-        <v>1346</v>
+        <v>1667</v>
       </c>
       <c r="M66" s="70" t="s">
-        <v>1664</v>
+        <v>1799</v>
       </c>
       <c r="N66" s="70" t="s">
-        <v>1665</v>
+        <v>1800</v>
       </c>
       <c r="O66" s="70" t="s">
-        <v>1598</v>
+        <v>1726</v>
       </c>
       <c r="P66" s="70"/>
       <c r="Q66" s="70" t="s">
-        <v>1666</v>
+        <v>1801</v>
       </c>
       <c r="R66" s="70" t="s">
-        <v>1668</v>
+        <v>1803</v>
       </c>
       <c r="S66" s="31"/>
       <c r="V66" s="63"/>
@@ -16536,42 +17488,42 @@
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
       <c r="D68" s="73" t="s">
-        <v>1209</v>
+        <v>1804</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>1177</v>
+        <v>1806</v>
       </c>
       <c r="F68" s="73"/>
       <c r="G68" s="73" t="s">
-        <v>1669</v>
+        <v>1808</v>
       </c>
       <c r="H68" s="73" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="I68" s="73" t="s">
-        <v>1671</v>
+        <v>1810</v>
       </c>
       <c r="J68" s="73" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="K68" s="73" t="s">
-        <v>1622</v>
+        <v>1751</v>
       </c>
       <c r="L68" s="73" t="s">
-        <v>1245</v>
+        <v>1811</v>
       </c>
       <c r="M68" s="73"/>
       <c r="N68" s="73" t="s">
-        <v>1672</v>
+        <v>1813</v>
       </c>
       <c r="O68" s="73" t="s">
-        <v>1674</v>
+        <v>1815</v>
       </c>
       <c r="P68" s="73" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="Q68" s="73" t="s">
-        <v>1676</v>
+        <v>1817</v>
       </c>
       <c r="R68" s="73"/>
       <c r="S68" s="19"/>
@@ -16633,42 +17585,42 @@
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
       <c r="D70" s="70" t="s">
-        <v>1338</v>
+        <v>1805</v>
       </c>
       <c r="E70" s="70" t="s">
-        <v>1332</v>
+        <v>1807</v>
       </c>
       <c r="F70" s="70"/>
       <c r="G70" s="70" t="s">
-        <v>1670</v>
+        <v>1809</v>
       </c>
       <c r="H70" s="70" t="s">
-        <v>1585</v>
+        <v>1709</v>
       </c>
       <c r="I70" s="70" t="s">
-        <v>1671</v>
+        <v>1810</v>
       </c>
       <c r="J70" s="70" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="K70" s="70" t="s">
-        <v>1623</v>
+        <v>1752</v>
       </c>
       <c r="L70" s="70" t="s">
-        <v>1329</v>
+        <v>1812</v>
       </c>
       <c r="M70" s="70"/>
       <c r="N70" s="70" t="s">
-        <v>1673</v>
+        <v>1814</v>
       </c>
       <c r="O70" s="70" t="s">
-        <v>1675</v>
+        <v>1816</v>
       </c>
       <c r="P70" s="70" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="Q70" s="70" t="s">
-        <v>1677</v>
+        <v>1818</v>
       </c>
       <c r="R70" s="70"/>
       <c r="S70" s="31"/>
@@ -16697,45 +17649,45 @@
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
       <c r="D72" s="73" t="s">
-        <v>1678</v>
+        <v>1819</v>
       </c>
       <c r="E72" s="73" t="s">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="F72" s="73" t="s">
-        <v>1681</v>
+        <v>1822</v>
       </c>
       <c r="G72" s="73" t="s">
-        <v>1594</v>
+        <v>1722</v>
       </c>
       <c r="H72" s="73"/>
       <c r="I72" s="73" t="s">
-        <v>1209</v>
+        <v>1804</v>
       </c>
       <c r="J72" s="73" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="K72" s="73" t="s">
-        <v>1683</v>
+        <v>1824</v>
       </c>
       <c r="L72" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M72" s="73" t="s">
-        <v>1685</v>
+        <v>1826</v>
       </c>
       <c r="N72" s="73" t="s">
-        <v>49</v>
+        <v>784</v>
       </c>
       <c r="O72" s="73"/>
       <c r="P72" s="73" t="s">
-        <v>1687</v>
+        <v>1828</v>
       </c>
       <c r="Q72" s="73" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="R72" s="73" t="s">
-        <v>1622</v>
+        <v>1751</v>
       </c>
       <c r="S72" s="19"/>
       <c r="V72" s="63"/>
@@ -16796,45 +17748,45 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
       <c r="D74" s="70" t="s">
-        <v>1679</v>
+        <v>1820</v>
       </c>
       <c r="E74" s="70" t="s">
-        <v>1680</v>
+        <v>1821</v>
       </c>
       <c r="F74" s="70" t="s">
-        <v>1682</v>
+        <v>1823</v>
       </c>
       <c r="G74" s="70" t="s">
-        <v>1595</v>
+        <v>1723</v>
       </c>
       <c r="H74" s="70"/>
       <c r="I74" s="70" t="s">
-        <v>1338</v>
+        <v>1805</v>
       </c>
       <c r="J74" s="70" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="K74" s="70" t="s">
-        <v>1684</v>
+        <v>1825</v>
       </c>
       <c r="L74" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M74" s="70" t="s">
-        <v>1686</v>
+        <v>1827</v>
       </c>
       <c r="N74" s="70" t="s">
-        <v>1545</v>
+        <v>1660</v>
       </c>
       <c r="O74" s="70"/>
       <c r="P74" s="70" t="s">
-        <v>1688</v>
+        <v>1829</v>
       </c>
       <c r="Q74" s="70" t="s">
-        <v>1585</v>
+        <v>1709</v>
       </c>
       <c r="R74" s="70" t="s">
-        <v>1623</v>
+        <v>1752</v>
       </c>
       <c r="S74" s="31"/>
       <c r="V74" s="63"/>
@@ -16862,42 +17814,42 @@
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="E76" s="73" t="s">
-        <v>337</v>
+        <v>599</v>
       </c>
       <c r="F76" s="73" t="s">
-        <v>1690</v>
+        <v>1831</v>
       </c>
       <c r="G76" s="73"/>
       <c r="H76" s="73" t="s">
-        <v>380</v>
+        <v>691</v>
       </c>
       <c r="I76" s="73" t="s">
-        <v>1231</v>
+        <v>1833</v>
       </c>
       <c r="J76" s="73" t="s">
-        <v>61</v>
+        <v>655</v>
       </c>
       <c r="K76" s="73" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="L76" s="73"/>
       <c r="M76" s="73" t="s">
-        <v>47</v>
+        <v>776</v>
       </c>
       <c r="N76" s="73" t="s">
-        <v>1693</v>
+        <v>1836</v>
       </c>
       <c r="O76" s="73" t="s">
-        <v>1695</v>
+        <v>1838</v>
       </c>
       <c r="P76" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="Q76" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="R76" s="73"/>
       <c r="S76" s="19"/>
@@ -16959,42 +17911,42 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="E78" s="70" t="s">
-        <v>1689</v>
+        <v>1830</v>
       </c>
       <c r="F78" s="70" t="s">
-        <v>1691</v>
+        <v>1832</v>
       </c>
       <c r="G78" s="70"/>
       <c r="H78" s="70" t="s">
-        <v>1599</v>
+        <v>1727</v>
       </c>
       <c r="I78" s="70" t="s">
-        <v>1366</v>
+        <v>1834</v>
       </c>
       <c r="J78" s="70" t="s">
-        <v>1540</v>
+        <v>1653</v>
       </c>
       <c r="K78" s="70" t="s">
-        <v>361</v>
+        <v>649</v>
       </c>
       <c r="L78" s="70"/>
       <c r="M78" s="70" t="s">
-        <v>1692</v>
+        <v>1835</v>
       </c>
       <c r="N78" s="70" t="s">
-        <v>1694</v>
+        <v>1837</v>
       </c>
       <c r="O78" s="70" t="s">
-        <v>1696</v>
+        <v>1839</v>
       </c>
       <c r="P78" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="Q78" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="R78" s="70"/>
       <c r="S78" s="31"/>
@@ -17023,42 +17975,42 @@
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
       <c r="D80" s="73" t="s">
-        <v>1697</v>
+        <v>1840</v>
       </c>
       <c r="E80" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="F80" s="73" t="s">
-        <v>1622</v>
+        <v>1751</v>
       </c>
       <c r="G80" s="73" t="s">
-        <v>1671</v>
+        <v>1810</v>
       </c>
       <c r="H80" s="73"/>
       <c r="I80" s="73" t="s">
-        <v>1615</v>
+        <v>1744</v>
       </c>
       <c r="J80" s="73" t="s">
-        <v>1607</v>
+        <v>1736</v>
       </c>
       <c r="K80" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="L80" s="73" t="s">
-        <v>1699</v>
+        <v>1842</v>
       </c>
       <c r="M80" s="73"/>
       <c r="N80" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="O80" s="73" t="s">
-        <v>1575</v>
+        <v>1699</v>
       </c>
       <c r="P80" s="73" t="s">
-        <v>1701</v>
+        <v>1844</v>
       </c>
       <c r="Q80" s="73" t="s">
-        <v>1703</v>
+        <v>1846</v>
       </c>
       <c r="R80" s="73"/>
       <c r="S80" s="19"/>
@@ -17120,42 +18072,42 @@
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
       <c r="D82" s="70" t="s">
-        <v>1698</v>
+        <v>1841</v>
       </c>
       <c r="E82" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="F82" s="70" t="s">
-        <v>1623</v>
+        <v>1752</v>
       </c>
       <c r="G82" s="70" t="s">
-        <v>1671</v>
+        <v>1810</v>
       </c>
       <c r="H82" s="70"/>
       <c r="I82" s="70" t="s">
-        <v>332</v>
+        <v>583</v>
       </c>
       <c r="J82" s="70" t="s">
-        <v>1608</v>
+        <v>1737</v>
       </c>
       <c r="K82" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="L82" s="70" t="s">
-        <v>1700</v>
+        <v>1843</v>
       </c>
       <c r="M82" s="70"/>
       <c r="N82" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="O82" s="70" t="s">
-        <v>1576</v>
+        <v>1700</v>
       </c>
       <c r="P82" s="70" t="s">
-        <v>1702</v>
+        <v>1845</v>
       </c>
       <c r="Q82" s="70" t="s">
-        <v>1704</v>
+        <v>1847</v>
       </c>
       <c r="R82" s="70"/>
       <c r="S82" s="31"/>
@@ -17184,44 +18136,44 @@
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
       <c r="D84" s="73" t="s">
-        <v>1705</v>
+        <v>1848</v>
       </c>
       <c r="E84" s="73" t="s">
-        <v>1209</v>
+        <v>1804</v>
       </c>
       <c r="F84" s="73" t="s">
-        <v>48</v>
+        <v>529</v>
       </c>
       <c r="G84" s="73" t="s">
-        <v>1209</v>
+        <v>1804</v>
       </c>
       <c r="H84" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="I84" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="J84" s="73" t="s">
-        <v>317</v>
+        <v>551</v>
       </c>
       <c r="K84" s="73" t="s">
-        <v>414</v>
+        <v>762</v>
       </c>
       <c r="L84" s="73"/>
       <c r="M84" s="73" t="s">
-        <v>1354</v>
+        <v>1850</v>
       </c>
       <c r="N84" s="73" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="O84" s="73" t="s">
-        <v>1708</v>
+        <v>1852</v>
       </c>
       <c r="P84" s="73" t="s">
-        <v>1231</v>
+        <v>1833</v>
       </c>
       <c r="Q84" s="73" t="s">
-        <v>1710</v>
+        <v>1854</v>
       </c>
       <c r="R84" s="73"/>
       <c r="S84" s="19"/>
@@ -17283,44 +18235,44 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="22"/>
       <c r="D86" s="70" t="s">
-        <v>1706</v>
+        <v>1849</v>
       </c>
       <c r="E86" s="70" t="s">
-        <v>1338</v>
+        <v>1805</v>
       </c>
       <c r="F86" s="70" t="s">
-        <v>1215</v>
+        <v>1676</v>
       </c>
       <c r="G86" s="70" t="s">
-        <v>1338</v>
+        <v>1805</v>
       </c>
       <c r="H86" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="I86" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="J86" s="70" t="s">
-        <v>317</v>
+        <v>551</v>
       </c>
       <c r="K86" s="70" t="s">
-        <v>1627</v>
+        <v>1756</v>
       </c>
       <c r="L86" s="70"/>
       <c r="M86" s="70" t="s">
-        <v>1707</v>
+        <v>1851</v>
       </c>
       <c r="N86" s="70" t="s">
-        <v>320</v>
+        <v>557</v>
       </c>
       <c r="O86" s="70" t="s">
-        <v>1709</v>
+        <v>1853</v>
       </c>
       <c r="P86" s="70" t="s">
-        <v>1366</v>
+        <v>1834</v>
       </c>
       <c r="Q86" s="70" t="s">
-        <v>1711</v>
+        <v>1855</v>
       </c>
       <c r="R86" s="70"/>
       <c r="S86" s="31"/>
@@ -17349,43 +18301,43 @@
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
       <c r="D88" s="73" t="s">
-        <v>1712</v>
+        <v>1856</v>
       </c>
       <c r="E88" s="73" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="F88" s="73" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="G88" s="73" t="s">
-        <v>1713</v>
+        <v>1857</v>
       </c>
       <c r="H88" s="73"/>
       <c r="I88" s="73" t="s">
-        <v>467</v>
+        <v>876</v>
       </c>
       <c r="J88" s="73" t="s">
-        <v>1634</v>
+        <v>1765</v>
       </c>
       <c r="K88" s="73" t="s">
-        <v>1716</v>
+        <v>1860</v>
       </c>
       <c r="L88" s="73"/>
       <c r="M88" s="73"/>
       <c r="N88" s="73" t="s">
-        <v>1717</v>
+        <v>1861</v>
       </c>
       <c r="O88" s="73" t="s">
-        <v>1719</v>
+        <v>1863</v>
       </c>
       <c r="P88" s="73" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="Q88" s="73" t="s">
-        <v>1613</v>
+        <v>1742</v>
       </c>
       <c r="R88" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="S88" s="19"/>
       <c r="V88" s="7"/>
@@ -17446,43 +18398,43 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="70" t="s">
-        <v>1712</v>
+        <v>1856</v>
       </c>
       <c r="E90" s="70" t="s">
-        <v>1585</v>
+        <v>1709</v>
       </c>
       <c r="F90" s="70" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="G90" s="70" t="s">
-        <v>1714</v>
+        <v>1858</v>
       </c>
       <c r="H90" s="70"/>
       <c r="I90" s="70" t="s">
-        <v>1715</v>
+        <v>1859</v>
       </c>
       <c r="J90" s="70" t="s">
-        <v>1635</v>
+        <v>1766</v>
       </c>
       <c r="K90" s="70" t="s">
-        <v>396</v>
+        <v>724</v>
       </c>
       <c r="L90" s="70"/>
       <c r="M90" s="70"/>
       <c r="N90" s="70" t="s">
-        <v>1718</v>
+        <v>1862</v>
       </c>
       <c r="O90" s="70" t="s">
-        <v>1720</v>
+        <v>1864</v>
       </c>
       <c r="P90" s="70" t="s">
-        <v>1593</v>
+        <v>1721</v>
       </c>
       <c r="Q90" s="70" t="s">
-        <v>1614</v>
+        <v>1743</v>
       </c>
       <c r="R90" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="S90" s="31"/>
       <c r="V90" s="7"/>
@@ -17512,16 +18464,16 @@
       <c r="D92" s="73"/>
       <c r="E92" s="73"/>
       <c r="F92" s="73" t="s">
-        <v>1721</v>
+        <v>1865</v>
       </c>
       <c r="G92" s="73" t="s">
-        <v>1209</v>
+        <v>1804</v>
       </c>
       <c r="H92" s="73" t="s">
-        <v>1722</v>
+        <v>1866</v>
       </c>
       <c r="I92" s="73" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="J92" s="73"/>
       <c r="K92" s="73"/>
@@ -17581,16 +18533,16 @@
       <c r="D94" s="70"/>
       <c r="E94" s="70"/>
       <c r="F94" s="70" t="s">
-        <v>337</v>
+        <v>599</v>
       </c>
       <c r="G94" s="70" t="s">
-        <v>1338</v>
+        <v>1805</v>
       </c>
       <c r="H94" s="70" t="s">
-        <v>1723</v>
+        <v>1867</v>
       </c>
       <c r="I94" s="70" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="J94" s="70"/>
       <c r="K94" s="70"/>
@@ -17714,45 +18666,45 @@
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
       <c r="D100" s="73" t="s">
-        <v>1724</v>
+        <v>1868</v>
       </c>
       <c r="E100" s="73" t="s">
-        <v>378</v>
+        <v>687</v>
       </c>
       <c r="F100" s="73" t="s">
-        <v>1167</v>
+        <v>1781</v>
       </c>
       <c r="G100" s="73" t="s">
-        <v>1634</v>
+        <v>1765</v>
       </c>
       <c r="H100" s="73" t="s">
-        <v>317</v>
+        <v>551</v>
       </c>
       <c r="I100" s="73" t="s">
-        <v>47</v>
+        <v>776</v>
       </c>
       <c r="J100" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="K100" s="73" t="s">
-        <v>437</v>
+        <v>814</v>
       </c>
       <c r="L100" s="73"/>
       <c r="M100" s="73" t="s">
-        <v>1727</v>
+        <v>1871</v>
       </c>
       <c r="N100" s="73" t="s">
-        <v>1729</v>
+        <v>1873</v>
       </c>
       <c r="O100" s="73" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="P100" s="73" t="s">
-        <v>1730</v>
+        <v>1874</v>
       </c>
       <c r="Q100" s="73"/>
       <c r="R100" s="73" t="s">
-        <v>1732</v>
+        <v>1876</v>
       </c>
       <c r="S100" s="19"/>
       <c r="V100" s="7"/>
@@ -17813,45 +18765,45 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
       <c r="D102" s="70" t="s">
-        <v>1725</v>
+        <v>1869</v>
       </c>
       <c r="E102" s="70" t="s">
-        <v>1726</v>
+        <v>1870</v>
       </c>
       <c r="F102" s="70" t="s">
-        <v>1387</v>
+        <v>1782</v>
       </c>
       <c r="G102" s="70" t="s">
-        <v>1635</v>
+        <v>1766</v>
       </c>
       <c r="H102" s="70" t="s">
-        <v>317</v>
+        <v>551</v>
       </c>
       <c r="I102" s="70" t="s">
-        <v>1692</v>
+        <v>1835</v>
       </c>
       <c r="J102" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="K102" s="70" t="s">
-        <v>411</v>
+        <v>756</v>
       </c>
       <c r="L102" s="70"/>
       <c r="M102" s="70" t="s">
-        <v>1728</v>
+        <v>1872</v>
       </c>
       <c r="N102" s="70" t="s">
-        <v>1729</v>
+        <v>1873</v>
       </c>
       <c r="O102" s="70" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="P102" s="70" t="s">
-        <v>1731</v>
+        <v>1875</v>
       </c>
       <c r="Q102" s="70"/>
       <c r="R102" s="70" t="s">
-        <v>1733</v>
+        <v>1877</v>
       </c>
       <c r="S102" s="31"/>
       <c r="V102" s="7"/>
@@ -17879,45 +18831,45 @@
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
       <c r="D104" s="73" t="s">
-        <v>465</v>
+        <v>872</v>
       </c>
       <c r="E104" s="73" t="s">
-        <v>1209</v>
+        <v>1804</v>
       </c>
       <c r="F104" s="73" t="s">
-        <v>461</v>
+        <v>864</v>
       </c>
       <c r="G104" s="73" t="s">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="H104" s="73" t="s">
-        <v>464</v>
+        <v>870</v>
       </c>
       <c r="I104" s="73" t="s">
-        <v>1241</v>
+        <v>1881</v>
       </c>
       <c r="J104" s="73"/>
       <c r="K104" s="73" t="s">
-        <v>1209</v>
+        <v>1804</v>
       </c>
       <c r="L104" s="73" t="s">
-        <v>48</v>
+        <v>529</v>
       </c>
       <c r="M104" s="73" t="s">
-        <v>1736</v>
+        <v>1883</v>
       </c>
       <c r="N104" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O104" s="73" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="P104" s="73" t="s">
-        <v>414</v>
+        <v>762</v>
       </c>
       <c r="Q104" s="73"/>
       <c r="R104" s="73" t="s">
-        <v>1168</v>
+        <v>1885</v>
       </c>
       <c r="S104" s="19"/>
       <c r="V104" s="7"/>
@@ -17978,45 +18930,45 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="70" t="s">
-        <v>1734</v>
+        <v>1878</v>
       </c>
       <c r="E106" s="70" t="s">
-        <v>1338</v>
+        <v>1805</v>
       </c>
       <c r="F106" s="70" t="s">
-        <v>1368</v>
+        <v>1879</v>
       </c>
       <c r="G106" s="70" t="s">
-        <v>1735</v>
+        <v>1880</v>
       </c>
       <c r="H106" s="70" t="s">
-        <v>464</v>
+        <v>870</v>
       </c>
       <c r="I106" s="70" t="s">
-        <v>1327</v>
+        <v>1882</v>
       </c>
       <c r="J106" s="70"/>
       <c r="K106" s="70" t="s">
-        <v>1338</v>
+        <v>1805</v>
       </c>
       <c r="L106" s="70" t="s">
-        <v>1215</v>
+        <v>1676</v>
       </c>
       <c r="M106" s="70" t="s">
-        <v>1737</v>
+        <v>1884</v>
       </c>
       <c r="N106" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="O106" s="70" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="P106" s="70" t="s">
-        <v>1627</v>
+        <v>1756</v>
       </c>
       <c r="Q106" s="70"/>
       <c r="R106" s="70" t="s">
-        <v>1344</v>
+        <v>1886</v>
       </c>
       <c r="S106" s="31"/>
       <c r="V106" s="7"/>
@@ -18044,44 +18996,44 @@
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
       <c r="D108" s="73" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="E108" s="73" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="F108" s="73" t="s">
-        <v>1717</v>
+        <v>1861</v>
       </c>
       <c r="G108" s="73" t="s">
-        <v>1719</v>
+        <v>1863</v>
       </c>
       <c r="H108" s="73" t="s">
-        <v>1575</v>
+        <v>1699</v>
       </c>
       <c r="I108" s="73" t="s">
-        <v>1738</v>
+        <v>1887</v>
       </c>
       <c r="J108" s="73" t="s">
-        <v>1739</v>
+        <v>1888</v>
       </c>
       <c r="K108" s="73"/>
       <c r="L108" s="73" t="s">
-        <v>1741</v>
+        <v>1890</v>
       </c>
       <c r="M108" s="73" t="s">
-        <v>1743</v>
+        <v>1892</v>
       </c>
       <c r="N108" s="73" t="s">
-        <v>373</v>
+        <v>677</v>
       </c>
       <c r="O108" s="73" t="s">
-        <v>1575</v>
+        <v>1699</v>
       </c>
       <c r="P108" s="73" t="s">
-        <v>458</v>
+        <v>858</v>
       </c>
       <c r="Q108" s="73" t="s">
-        <v>1308</v>
+        <v>1895</v>
       </c>
       <c r="R108" s="73"/>
       <c r="S108" s="19"/>
@@ -18143,44 +19095,44 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="70" t="s">
-        <v>469</v>
+        <v>882</v>
       </c>
       <c r="E110" s="70" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="F110" s="70" t="s">
-        <v>1718</v>
+        <v>1862</v>
       </c>
       <c r="G110" s="70" t="s">
-        <v>1720</v>
+        <v>1864</v>
       </c>
       <c r="H110" s="70" t="s">
-        <v>1576</v>
+        <v>1700</v>
       </c>
       <c r="I110" s="70" t="s">
-        <v>1738</v>
+        <v>1887</v>
       </c>
       <c r="J110" s="70" t="s">
-        <v>1740</v>
+        <v>1889</v>
       </c>
       <c r="K110" s="70"/>
       <c r="L110" s="70" t="s">
-        <v>1742</v>
+        <v>1891</v>
       </c>
       <c r="M110" s="70" t="s">
-        <v>1744</v>
+        <v>1893</v>
       </c>
       <c r="N110" s="70" t="s">
-        <v>373</v>
+        <v>677</v>
       </c>
       <c r="O110" s="70" t="s">
-        <v>1576</v>
+        <v>1700</v>
       </c>
       <c r="P110" s="70" t="s">
-        <v>1745</v>
+        <v>1894</v>
       </c>
       <c r="Q110" s="70" t="s">
-        <v>1345</v>
+        <v>1896</v>
       </c>
       <c r="R110" s="70"/>
       <c r="S110" s="31"/>
@@ -18209,42 +19161,42 @@
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
       <c r="D112" s="73" t="s">
-        <v>1746</v>
+        <v>1897</v>
       </c>
       <c r="E112" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="F112" s="73" t="s">
-        <v>53</v>
+        <v>896</v>
       </c>
       <c r="G112" s="73" t="s">
-        <v>1363</v>
+        <v>1899</v>
       </c>
       <c r="H112" s="73"/>
       <c r="I112" s="73" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="J112" s="73" t="s">
-        <v>1705</v>
+        <v>1848</v>
       </c>
       <c r="K112" s="73" t="s">
-        <v>1363</v>
+        <v>1899</v>
       </c>
       <c r="L112" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M112" s="73" t="s">
-        <v>53</v>
+        <v>896</v>
       </c>
       <c r="N112" s="73" t="s">
-        <v>1167</v>
+        <v>1781</v>
       </c>
       <c r="O112" s="73"/>
       <c r="P112" s="73" t="s">
-        <v>46</v>
+        <v>780</v>
       </c>
       <c r="Q112" s="73" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="R112" s="73"/>
       <c r="S112" s="19"/>
@@ -18306,42 +19258,42 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="70" t="s">
-        <v>1747</v>
+        <v>1898</v>
       </c>
       <c r="E114" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="F114" s="70" t="s">
-        <v>1600</v>
+        <v>1728</v>
       </c>
       <c r="G114" s="70" t="s">
-        <v>1748</v>
+        <v>1900</v>
       </c>
       <c r="H114" s="70"/>
       <c r="I114" s="70" t="s">
-        <v>1593</v>
+        <v>1721</v>
       </c>
       <c r="J114" s="70" t="s">
-        <v>1706</v>
+        <v>1849</v>
       </c>
       <c r="K114" s="70" t="s">
-        <v>1748</v>
+        <v>1900</v>
       </c>
       <c r="L114" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="M114" s="70" t="s">
-        <v>1600</v>
+        <v>1728</v>
       </c>
       <c r="N114" s="70" t="s">
-        <v>1387</v>
+        <v>1782</v>
       </c>
       <c r="O114" s="70"/>
       <c r="P114" s="70" t="s">
-        <v>1749</v>
+        <v>1901</v>
       </c>
       <c r="Q114" s="70" t="s">
-        <v>340</v>
+        <v>605</v>
       </c>
       <c r="R114" s="70"/>
       <c r="S114" s="31"/>
@@ -18370,45 +19322,45 @@
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
       <c r="D116" s="73" t="s">
-        <v>1168</v>
+        <v>1885</v>
       </c>
       <c r="E116" s="73" t="s">
-        <v>1582</v>
+        <v>1706</v>
       </c>
       <c r="F116" s="73" t="s">
-        <v>1597</v>
+        <v>1725</v>
       </c>
       <c r="G116" s="73" t="s">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="H116" s="73" t="s">
-        <v>1634</v>
+        <v>1765</v>
       </c>
       <c r="I116" s="73"/>
       <c r="J116" s="73" t="s">
-        <v>1750</v>
+        <v>1902</v>
       </c>
       <c r="K116" s="73" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="L116" s="73" t="s">
-        <v>1622</v>
+        <v>1751</v>
       </c>
       <c r="M116" s="73" t="s">
-        <v>366</v>
+        <v>661</v>
       </c>
       <c r="N116" s="73"/>
       <c r="O116" s="73" t="s">
-        <v>1169</v>
+        <v>1711</v>
       </c>
       <c r="P116" s="73" t="s">
-        <v>1638</v>
+        <v>1771</v>
       </c>
       <c r="Q116" s="73" t="s">
-        <v>1597</v>
+        <v>1725</v>
       </c>
       <c r="R116" s="73" t="s">
-        <v>61</v>
+        <v>655</v>
       </c>
       <c r="S116" s="19"/>
       <c r="V116" s="7"/>
@@ -18469,45 +19421,45 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="70" t="s">
-        <v>1344</v>
+        <v>1886</v>
       </c>
       <c r="E118" s="70" t="s">
-        <v>1582</v>
+        <v>1706</v>
       </c>
       <c r="F118" s="70" t="s">
-        <v>1598</v>
+        <v>1726</v>
       </c>
       <c r="G118" s="70" t="s">
-        <v>1717</v>
+        <v>1861</v>
       </c>
       <c r="H118" s="70" t="s">
-        <v>1635</v>
+        <v>1766</v>
       </c>
       <c r="I118" s="70"/>
       <c r="J118" s="70" t="s">
-        <v>1750</v>
+        <v>1902</v>
       </c>
       <c r="K118" s="70" t="s">
-        <v>1585</v>
+        <v>1709</v>
       </c>
       <c r="L118" s="70" t="s">
-        <v>1623</v>
+        <v>1752</v>
       </c>
       <c r="M118" s="70" t="s">
-        <v>366</v>
+        <v>661</v>
       </c>
       <c r="N118" s="70"/>
       <c r="O118" s="70" t="s">
-        <v>1169</v>
+        <v>1711</v>
       </c>
       <c r="P118" s="70" t="s">
-        <v>1639</v>
+        <v>1772</v>
       </c>
       <c r="Q118" s="70" t="s">
-        <v>1598</v>
+        <v>1726</v>
       </c>
       <c r="R118" s="70" t="s">
-        <v>1540</v>
+        <v>1653</v>
       </c>
       <c r="S118" s="31"/>
       <c r="V118" s="7"/>
@@ -18535,43 +19487,43 @@
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
       <c r="D120" s="73" t="s">
-        <v>381</v>
+        <v>693</v>
       </c>
       <c r="E120" s="73"/>
       <c r="F120" s="73" t="s">
-        <v>1622</v>
+        <v>1751</v>
       </c>
       <c r="G120" s="73" t="s">
-        <v>336</v>
+        <v>597</v>
       </c>
       <c r="H120" s="73" t="s">
-        <v>317</v>
+        <v>551</v>
       </c>
       <c r="I120" s="73" t="s">
-        <v>414</v>
+        <v>762</v>
       </c>
       <c r="J120" s="73"/>
       <c r="K120" s="73" t="s">
-        <v>45</v>
+        <v>567</v>
       </c>
       <c r="L120" s="73" t="s">
-        <v>1752</v>
+        <v>1904</v>
       </c>
       <c r="M120" s="73" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="N120" s="73" t="s">
-        <v>1173</v>
+        <v>1654</v>
       </c>
       <c r="O120" s="73"/>
       <c r="P120" s="73" t="s">
-        <v>1746</v>
+        <v>1897</v>
       </c>
       <c r="Q120" s="73" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="R120" s="73" t="s">
-        <v>378</v>
+        <v>687</v>
       </c>
       <c r="S120" s="19"/>
       <c r="V120" s="7"/>
@@ -18632,43 +19584,43 @@
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="22"/>
       <c r="D122" s="70" t="s">
-        <v>1751</v>
+        <v>1903</v>
       </c>
       <c r="E122" s="70"/>
       <c r="F122" s="70" t="s">
-        <v>1623</v>
+        <v>1752</v>
       </c>
       <c r="G122" s="70" t="s">
-        <v>1340</v>
+        <v>1698</v>
       </c>
       <c r="H122" s="70" t="s">
-        <v>317</v>
+        <v>551</v>
       </c>
       <c r="I122" s="70" t="s">
-        <v>1627</v>
+        <v>1756</v>
       </c>
       <c r="J122" s="70"/>
       <c r="K122" s="70" t="s">
-        <v>1585</v>
+        <v>1709</v>
       </c>
       <c r="L122" s="70" t="s">
-        <v>1753</v>
+        <v>1905</v>
       </c>
       <c r="M122" s="70" t="s">
-        <v>1299</v>
+        <v>1718</v>
       </c>
       <c r="N122" s="70" t="s">
-        <v>1389</v>
+        <v>1655</v>
       </c>
       <c r="O122" s="70"/>
       <c r="P122" s="70" t="s">
-        <v>1747</v>
+        <v>1898</v>
       </c>
       <c r="Q122" s="70" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="R122" s="70" t="s">
-        <v>1726</v>
+        <v>1870</v>
       </c>
       <c r="S122" s="31"/>
       <c r="V122" s="7"/>
@@ -18696,29 +19648,29 @@
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
       <c r="D124" s="73" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
       <c r="E124" s="73"/>
       <c r="F124" s="73" t="s">
-        <v>364</v>
+        <v>657</v>
       </c>
       <c r="G124" s="73" t="s">
-        <v>1685</v>
+        <v>1826</v>
       </c>
       <c r="H124" s="73" t="s">
-        <v>1552</v>
+        <v>1670</v>
       </c>
       <c r="I124" s="73" t="s">
-        <v>47</v>
+        <v>776</v>
       </c>
       <c r="J124" s="73" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="K124" s="73" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="L124" s="73" t="s">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="M124" s="73"/>
       <c r="N124" s="68"/>
@@ -18777,29 +19729,29 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
       <c r="D126" s="70" t="s">
-        <v>1754</v>
+        <v>1906</v>
       </c>
       <c r="E126" s="70"/>
       <c r="F126" s="70" t="s">
-        <v>1593</v>
+        <v>1721</v>
       </c>
       <c r="G126" s="70" t="s">
-        <v>1686</v>
+        <v>1827</v>
       </c>
       <c r="H126" s="70" t="s">
-        <v>1553</v>
+        <v>1671</v>
       </c>
       <c r="I126" s="70" t="s">
-        <v>1692</v>
+        <v>1835</v>
       </c>
       <c r="J126" s="70" t="s">
-        <v>333</v>
+        <v>585</v>
       </c>
       <c r="K126" s="70" t="s">
-        <v>56</v>
+        <v>754</v>
       </c>
       <c r="L126" s="70" t="s">
-        <v>1735</v>
+        <v>1880</v>
       </c>
       <c r="M126" s="70"/>
       <c r="N126" s="70"/>

--- a/output7/【河洛白話注音-閩拼調號】《蘭亭集序》.xlsx
+++ b/output7/【河洛白話注音-閩拼調號】《蘭亭集序》.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7191F39-CD35-4A09-B3F4-7CEFDEB9A748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2233FE8B-F25C-47A4-9BC4-B5651CF53E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25605" yWindow="1965" windowWidth="25080" windowHeight="12270" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
-    <sheet name="人工標音字庫" sheetId="280" r:id="rId2"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId3"/>
-    <sheet name="漢字注音 (2)" sheetId="275" r:id="rId4"/>
-    <sheet name="人工標音字庫 (2)" sheetId="274" r:id="rId5"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId6"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId8"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
+    <sheet name="漢字注音 (2)" sheetId="275" r:id="rId3"/>
+    <sheet name="人工標音字庫 (2)" sheetId="274" r:id="rId4"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId5"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -41,7 +40,7 @@
     <definedName name="語音類型">env!$C$13</definedName>
     <definedName name="標音方式">env!$C$17</definedName>
     <definedName name="標音方法">env!$C$15</definedName>
-    <definedName name="覩9" localSheetId="3">'漢字注音 (2)'!$A$5</definedName>
+    <definedName name="覩9" localSheetId="2">'漢字注音 (2)'!$A$5</definedName>
     <definedName name="覩9">漢字注音!$A$5</definedName>
     <definedName name="顯示注音輸入">env!$C$10</definedName>
   </definedNames>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="1900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="1900">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5058,9 +5057,6 @@
     <t>致</t>
   </si>
   <si>
-    <t>(89, 15); (89, 15)</t>
-  </si>
-  <si>
     <t>https://imgs.guwendianji.com/wp-content/uploads/2017/06/1-32.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6225,6 +6221,13 @@
   </si>
   <si>
     <t>ㄙㄨ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">永和九年，歲在癸丑，暮春之初，會於會稽山陰之蘭亭，修禊事也。羣賢畢至，少長咸集。此地有崇山峻嶺，茂林修竹；又有清流激湍，映帶左右，引以為流觴曲水，列坐其次。雖無絲竹管弦之盛，一觴一詠，亦足以暢敘幽情。
+是日也，天朗氣清，惠風和暢。仰觀宇宙之大，俯察品類之盛。所以遊目騁懷，足以極視聽之娛，信可樂也。
+夫人之相與，俯仰一世，或取諸懷抱，悟言一室之內；或因寄所託，放浪形骸之外。雖取舍萬殊，靜躁不同，當其欣於所遇，蹔得於己，怏然自足，不知老之將至；及其所之既倦，情隨事遷，感慨係之矣。向之所欣，俯仰之間，已為陳跡，猶不能不以之興懷；況脩短隨化，終期於盡。古人云：「死生亦大矣。」豈不痛哉！
+每覽昔人興感之由，若合一契，未嘗不臨文嗟悼，不能喻之於懷。固知一死生為虛誕，齊彭殤為妄作。後之視今，亦猶今之視昔，悲夫！故列敘時人，錄其所述，雖世殊事異，所以興懷，其致一也。後之覽者，亦將有感於斯文。
+</t>
   </si>
 </sst>
 </file>
@@ -10329,7 +10332,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D7" s="55"/>
       <c r="E7" s="55"/>
@@ -10385,7 +10388,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="30">
@@ -10401,7 +10404,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="30">
@@ -10425,7 +10428,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="49" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -10433,7 +10436,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="49" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -10471,60 +10474,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0999127B-8F77-411B-8CF1-EC6B2132DF25}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>499</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1512</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V482"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AI8" sqref="AI8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
   <cols>
@@ -10633,7 +10586,7 @@
       <c r="S2" s="10"/>
       <c r="V2" s="11">
         <f xml:space="preserve"> LEN(V3)</f>
-        <v>0</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
@@ -10655,47 +10608,49 @@
       <c r="Q3" s="62"/>
       <c r="R3" s="62"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="63"/>
+      <c r="V3" s="63" t="s">
+        <v>1899</v>
+      </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
       <c r="D4" s="70" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E4" s="70" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="K4" s="70" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="L4" s="70" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="M4" s="70"/>
       <c r="N4" s="70" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="O4" s="70" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="P4" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="Q4" s="70" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="R4" s="70"/>
       <c r="S4" s="19"/>
@@ -10757,42 +10712,42 @@
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
       <c r="D6" s="71" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="H6" s="71"/>
       <c r="I6" s="71" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="J6" s="71" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="K6" s="71" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="L6" s="71" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="M6" s="71"/>
       <c r="N6" s="71" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="O6" s="71" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="P6" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="Q6" s="71" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="R6" s="71"/>
       <c r="S6" s="25"/>
@@ -10822,44 +10777,44 @@
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
       <c r="D8" s="70" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="G8" s="70" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="H8" s="70" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="I8" s="70" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="K8" s="70" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="L8" s="70" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="M8" s="70"/>
       <c r="N8" s="70" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="O8" s="70" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="P8" s="70" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="Q8" s="70" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="R8" s="70"/>
       <c r="S8" s="19"/>
@@ -10922,44 +10877,44 @@
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="22"/>
       <c r="D10" s="71" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="G10" s="71" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="H10" s="71" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="I10" s="71" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="J10" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K10" s="71" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="L10" s="71" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="M10" s="71"/>
       <c r="N10" s="71" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="O10" s="71" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="P10" s="71" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="Q10" s="71" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="R10" s="71"/>
       <c r="S10" s="31"/>
@@ -10988,45 +10943,45 @@
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
       <c r="D12" s="70" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="F12" s="70" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="K12" s="70" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="L12" s="70" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="M12" s="70"/>
       <c r="N12" s="70" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="O12" s="70" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="P12" s="70" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="Q12" s="70" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="R12" s="70" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="S12" s="19"/>
       <c r="V12" s="64"/>
@@ -11087,45 +11042,45 @@
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="22"/>
       <c r="D14" s="71" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="F14" s="71" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="G14" s="71" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="H14" s="71"/>
       <c r="I14" s="71" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="J14" s="71" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="K14" s="71" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="L14" s="71" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="M14" s="71"/>
       <c r="N14" s="71" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="O14" s="71" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="P14" s="71" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="Q14" s="71" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="R14" s="71" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="S14" s="31"/>
       <c r="V14" s="64"/>
@@ -11153,42 +11108,42 @@
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
       <c r="D16" s="70" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="70" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="H16" s="70" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="I16" s="70" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="K16" s="70"/>
       <c r="L16" s="70" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="M16" s="70" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="N16" s="70" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="O16" s="70" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="P16" s="70" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="Q16" s="70" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="R16" s="70"/>
       <c r="S16" s="19"/>
@@ -11250,42 +11205,42 @@
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="22"/>
       <c r="D18" s="71" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="F18" s="71"/>
       <c r="G18" s="71" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="H18" s="71" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="I18" s="71" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="J18" s="71" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="K18" s="71"/>
       <c r="L18" s="71" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="M18" s="71" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N18" s="71" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="O18" s="71" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="P18" s="71" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="Q18" s="71" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="R18" s="71"/>
       <c r="S18" s="31"/>
@@ -11314,45 +11269,45 @@
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
       <c r="D20" s="70" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="F20" s="70" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="G20" s="70" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="J20" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K20" s="70" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="L20" s="70" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="M20" s="70" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="N20" s="70" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="O20" s="70" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="P20" s="70"/>
       <c r="Q20" s="70" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="R20" s="70" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="S20" s="19"/>
       <c r="V20" s="64"/>
@@ -11413,45 +11368,45 @@
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="22"/>
       <c r="D22" s="71" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="F22" s="71" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G22" s="71" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="H22" s="71"/>
       <c r="I22" s="71" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="J22" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="K22" s="71" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="L22" s="71" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="M22" s="71" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="N22" s="71" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="O22" s="71" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="P22" s="71"/>
       <c r="Q22" s="71" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="R22" s="71" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="S22" s="31"/>
       <c r="V22" s="64"/>
@@ -11479,45 +11434,45 @@
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
       <c r="D24" s="70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="H24" s="70" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I24" s="70" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="J24" s="70" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="K24" s="70" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="L24" s="70" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="M24" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="N24" s="70" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="O24" s="70"/>
       <c r="P24" s="70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="Q24" s="70" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="R24" s="70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="S24" s="19"/>
       <c r="V24" s="64"/>
@@ -11578,45 +11533,45 @@
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="22"/>
       <c r="D26" s="71" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E26" s="71" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="71" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="H26" s="71" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I26" s="71" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="J26" s="71" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="K26" s="71" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="L26" s="71" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="M26" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="N26" s="71" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="O26" s="71"/>
       <c r="P26" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="Q26" s="71" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="R26" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="S26" s="31"/>
       <c r="V26" s="64"/>
@@ -11648,29 +11603,29 @@
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
       <c r="D28" s="70" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="70" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G28" s="70" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H28" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I28" s="70" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="J28" s="70" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="K28" s="70" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="L28" s="70" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="M28" s="70"/>
       <c r="N28" s="70"/>
@@ -11739,29 +11694,29 @@
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="22"/>
       <c r="D30" s="71" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G30" s="71" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H30" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I30" s="71" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="J30" s="71" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="K30" s="71" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="L30" s="71" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="M30" s="71"/>
       <c r="N30" s="71"/>
@@ -11894,43 +11849,43 @@
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
       <c r="D36" s="70" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="E36" s="70" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="F36" s="70" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="G36" s="70"/>
       <c r="H36" s="70" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="I36" s="70" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="J36" s="70" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="K36" s="70" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="L36" s="70"/>
       <c r="M36" s="70" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="N36" s="70" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="O36" s="70" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="P36" s="70" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="Q36" s="70"/>
       <c r="R36" s="70" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="S36" s="19"/>
       <c r="V36" s="64"/>
@@ -11991,43 +11946,43 @@
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="22"/>
       <c r="D38" s="71" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="F38" s="71" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="G38" s="71"/>
       <c r="H38" s="71" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="I38" s="71" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="J38" s="71" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="K38" s="71" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="L38" s="71"/>
       <c r="M38" s="71" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="N38" s="71" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="O38" s="71" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="P38" s="71" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="Q38" s="71"/>
       <c r="R38" s="71" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="S38" s="31"/>
       <c r="V38" s="64"/>
@@ -12055,45 +12010,45 @@
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
       <c r="D40" s="70" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F40" s="70" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="G40" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="H40" s="70" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="I40" s="70"/>
       <c r="J40" s="70" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K40" s="70" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="L40" s="70" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="M40" s="70" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="N40" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="O40" s="70" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="P40" s="70"/>
       <c r="Q40" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="R40" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="S40" s="19"/>
       <c r="V40" s="64"/>
@@ -12154,45 +12109,45 @@
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="22"/>
       <c r="D42" s="71" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E42" s="71" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F42" s="71" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="G42" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="H42" s="71" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="I42" s="71"/>
       <c r="J42" s="71" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="K42" s="71" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="L42" s="71" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="M42" s="71" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="N42" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O42" s="71" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="P42" s="71"/>
       <c r="Q42" s="71" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="R42" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="S42" s="31"/>
       <c r="V42" s="64"/>
@@ -12220,45 +12175,45 @@
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
       <c r="D44" s="70" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E44" s="70" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F44" s="70" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="G44" s="70" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H44" s="70"/>
       <c r="I44" s="70" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="J44" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="K44" s="70" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="L44" s="70" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="M44" s="70" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="N44" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="O44" s="70" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="P44" s="70"/>
       <c r="Q44" s="70" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="R44" s="70" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="S44" s="19"/>
       <c r="V44" s="64"/>
@@ -12319,45 +12274,45 @@
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="22"/>
       <c r="D46" s="71" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E46" s="71" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F46" s="71" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="G46" s="71" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H46" s="71"/>
       <c r="I46" s="71" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="J46" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="K46" s="71" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="L46" s="71" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="M46" s="71" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="N46" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O46" s="71" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="P46" s="71"/>
       <c r="Q46" s="71" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="R46" s="71" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="S46" s="31"/>
       <c r="V46" s="64"/>
@@ -12385,10 +12340,10 @@
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
       <c r="D48" s="70" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="F48" s="70"/>
       <c r="G48" s="70"/>
@@ -12442,10 +12397,10 @@
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="22"/>
       <c r="D50" s="71" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E50" s="71" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
@@ -12573,45 +12528,45 @@
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
       <c r="D56" s="70" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E56" s="70" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="F56" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="G56" s="70" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H56" s="70" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="I56" s="70"/>
       <c r="J56" s="70" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="K56" s="70" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="L56" s="70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="M56" s="70" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="N56" s="70"/>
       <c r="O56" s="70" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="P56" s="70" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="Q56" s="70" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="R56" s="70" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="S56" s="19"/>
       <c r="V56" s="64"/>
@@ -12672,45 +12627,45 @@
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="22"/>
       <c r="D58" s="71" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="G58" s="71" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H58" s="71" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="I58" s="71"/>
       <c r="J58" s="71" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="K58" s="71" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="L58" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="M58" s="71" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="N58" s="71"/>
       <c r="O58" s="71" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="P58" s="71" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="Q58" s="71" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="R58" s="71" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="S58" s="31"/>
       <c r="V58" s="64"/>
@@ -12738,42 +12693,42 @@
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
       <c r="D60" s="70" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="E60" s="70"/>
       <c r="F60" s="70" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="G60" s="70" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H60" s="70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="I60" s="70" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J60" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="K60" s="70" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="L60" s="70"/>
       <c r="M60" s="70" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="N60" s="70" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="O60" s="70" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="P60" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="Q60" s="70" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="R60" s="70"/>
       <c r="S60" s="19"/>
@@ -12835,42 +12790,42 @@
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="22"/>
       <c r="D62" s="71" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="E62" s="71"/>
       <c r="F62" s="71" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H62" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I62" s="71" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="J62" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K62" s="71" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="L62" s="71"/>
       <c r="M62" s="71" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="N62" s="71" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="O62" s="71" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="P62" s="71" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="Q62" s="71" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="R62" s="71"/>
       <c r="S62" s="31"/>
@@ -12899,45 +12854,45 @@
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
       <c r="D64" s="70" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="E64" s="70" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F64" s="70" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H64" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I64" s="70" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="J64" s="70"/>
       <c r="K64" s="70" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="L64" s="70" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="M64" s="70" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="N64" s="70" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="O64" s="70" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="P64" s="70"/>
       <c r="Q64" s="70" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="R64" s="70" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="S64" s="19"/>
       <c r="V64" s="64"/>
@@ -12998,45 +12953,45 @@
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="22"/>
       <c r="D66" s="71" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="E66" s="71" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F66" s="71" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="G66" s="71" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H66" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="I66" s="71" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="J66" s="71"/>
       <c r="K66" s="71" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="L66" s="71" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="M66" s="71" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="N66" s="71" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="O66" s="71" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="P66" s="71"/>
       <c r="Q66" s="71" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="R66" s="71" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="S66" s="31"/>
       <c r="V66" s="64"/>
@@ -13064,42 +13019,42 @@
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
       <c r="D68" s="70" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E68" s="70" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="F68" s="70"/>
       <c r="G68" s="70" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H68" s="70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="I68" s="70" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="J68" s="70" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="K68" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="L68" s="70" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="M68" s="70"/>
       <c r="N68" s="70" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="O68" s="70" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="P68" s="70" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="Q68" s="70" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="R68" s="70"/>
       <c r="S68" s="19"/>
@@ -13161,42 +13116,42 @@
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="22"/>
       <c r="D70" s="71" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="E70" s="71" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="F70" s="71"/>
       <c r="G70" s="71" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H70" s="71" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="I70" s="71" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="J70" s="71" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="K70" s="71" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="L70" s="71" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="M70" s="71"/>
       <c r="N70" s="71" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="O70" s="71" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="P70" s="71" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="Q70" s="71" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="R70" s="71"/>
       <c r="S70" s="31"/>
@@ -13225,45 +13180,45 @@
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
       <c r="D72" s="70" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="E72" s="70" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="F72" s="70" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="G72" s="70" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="H72" s="70"/>
       <c r="I72" s="70" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="J72" s="70" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="K72" s="70" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="L72" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="M72" s="70" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="N72" s="70" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="O72" s="70"/>
       <c r="P72" s="70" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="Q72" s="70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="R72" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="S72" s="19"/>
       <c r="V72" s="64"/>
@@ -13324,45 +13279,45 @@
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="22"/>
       <c r="D74" s="71" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="E74" s="71" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="F74" s="71" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="G74" s="71" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="H74" s="71"/>
       <c r="I74" s="71" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="J74" s="71" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="K74" s="71" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="L74" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="M74" s="71" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="N74" s="71" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="O74" s="71"/>
       <c r="P74" s="71" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="Q74" s="71" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="R74" s="71" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="S74" s="31"/>
       <c r="V74" s="64"/>
@@ -13390,42 +13345,42 @@
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
       <c r="D76" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E76" s="70" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="F76" s="70" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="G76" s="70"/>
       <c r="H76" s="70" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="I76" s="70" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="J76" s="70" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="K76" s="70" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="L76" s="70"/>
       <c r="M76" s="70" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="N76" s="70" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="O76" s="70" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="P76" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="Q76" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="R76" s="70"/>
       <c r="S76" s="19"/>
@@ -13487,42 +13442,42 @@
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="22"/>
       <c r="D78" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E78" s="71" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F78" s="71" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="G78" s="71"/>
       <c r="H78" s="71" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="I78" s="71" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J78" s="71" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="K78" s="71" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="L78" s="71"/>
       <c r="M78" s="71" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="N78" s="71" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="O78" s="71" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="P78" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="Q78" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="R78" s="71"/>
       <c r="S78" s="31"/>
@@ -13551,42 +13506,42 @@
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
       <c r="D80" s="70" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="E80" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F80" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G80" s="70" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H80" s="70"/>
       <c r="I80" s="70" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="J80" s="70" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="K80" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="L80" s="70" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="M80" s="70"/>
       <c r="N80" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="O80" s="70" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="P80" s="70" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="Q80" s="70" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="R80" s="70"/>
       <c r="S80" s="19"/>
@@ -13648,42 +13603,42 @@
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="22"/>
       <c r="D82" s="71" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="E82" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F82" s="71" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G82" s="71" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H82" s="71"/>
       <c r="I82" s="71" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="J82" s="71" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="K82" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="L82" s="71" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="M82" s="71"/>
       <c r="N82" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="O82" s="71" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="P82" s="71" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="Q82" s="71" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="R82" s="71"/>
       <c r="S82" s="31"/>
@@ -13712,44 +13667,44 @@
     <row r="84" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B84" s="17"/>
       <c r="D84" s="70" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="E84" s="70" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F84" s="70" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="G84" s="70" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H84" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="I84" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="J84" s="70" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="K84" s="70" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="L84" s="70"/>
       <c r="M84" s="70" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="N84" s="70" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="O84" s="70" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="P84" s="70" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="Q84" s="70" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="R84" s="70"/>
       <c r="S84" s="19"/>
@@ -13811,44 +13766,44 @@
     <row r="86" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B86" s="22"/>
       <c r="D86" s="71" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="E86" s="71" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F86" s="71" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="G86" s="71" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H86" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="I86" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="J86" s="71" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="K86" s="71" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="L86" s="71"/>
       <c r="M86" s="71" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="N86" s="71" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="O86" s="71" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="P86" s="71" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="Q86" s="71" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="R86" s="71"/>
       <c r="S86" s="31"/>
@@ -13877,43 +13832,43 @@
     <row r="88" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B88" s="17"/>
       <c r="D88" s="70" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E88" s="70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="F88" s="70" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="G88" s="70" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="H88" s="70"/>
       <c r="I88" s="70" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="J88" s="70" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="K88" s="70" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="L88" s="70"/>
       <c r="M88" s="70"/>
       <c r="N88" s="70" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="O88" s="70" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="P88" s="70" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="Q88" s="70" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="R88" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="S88" s="19"/>
       <c r="V88" s="7"/>
@@ -13974,43 +13929,43 @@
     <row r="90" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B90" s="22"/>
       <c r="D90" s="71" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E90" s="71" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F90" s="71" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="G90" s="71" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="H90" s="71"/>
       <c r="I90" s="71" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="J90" s="71" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="K90" s="71" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="L90" s="71"/>
       <c r="M90" s="71"/>
       <c r="N90" s="71" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="O90" s="71" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="P90" s="71" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="Q90" s="71" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="R90" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="S90" s="31"/>
       <c r="V90" s="7"/>
@@ -14040,16 +13995,16 @@
       <c r="D92" s="70"/>
       <c r="E92" s="70"/>
       <c r="F92" s="70" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="G92" s="70" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H92" s="70" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="I92" s="70" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="J92" s="70"/>
       <c r="K92" s="70"/>
@@ -14109,16 +14064,16 @@
       <c r="D94" s="71"/>
       <c r="E94" s="71"/>
       <c r="F94" s="71" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="G94" s="71" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H94" s="71" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="I94" s="71" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="J94" s="71"/>
       <c r="K94" s="71"/>
@@ -14242,45 +14197,45 @@
     <row r="100" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B100" s="17"/>
       <c r="D100" s="70" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E100" s="70" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="F100" s="70" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="G100" s="70" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H100" s="70" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="I100" s="70" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="J100" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="K100" s="70" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="L100" s="70"/>
       <c r="M100" s="70" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="N100" s="70" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="O100" s="70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="P100" s="70" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="Q100" s="70"/>
       <c r="R100" s="70" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="S100" s="19"/>
       <c r="V100" s="7"/>
@@ -14341,45 +14296,45 @@
     <row r="102" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B102" s="22"/>
       <c r="D102" s="71" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="E102" s="71" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="F102" s="71" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="G102" s="71" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H102" s="71" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="I102" s="71" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J102" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="K102" s="71" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="L102" s="71"/>
       <c r="M102" s="71" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="N102" s="71" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="O102" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="P102" s="71" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="Q102" s="71"/>
       <c r="R102" s="71" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="S102" s="31"/>
       <c r="V102" s="7"/>
@@ -14407,45 +14362,45 @@
     <row r="104" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B104" s="17"/>
       <c r="D104" s="70" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="E104" s="70" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F104" s="70" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="G104" s="70" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="H104" s="70" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="I104" s="70" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="J104" s="70"/>
       <c r="K104" s="70" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="L104" s="70" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="M104" s="70" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="N104" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="O104" s="70" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="P104" s="70" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="Q104" s="70"/>
       <c r="R104" s="70" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="S104" s="19"/>
       <c r="V104" s="7"/>
@@ -14506,45 +14461,45 @@
     <row r="106" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B106" s="22"/>
       <c r="D106" s="71" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="F106" s="71" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="G106" s="71" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="H106" s="71" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="I106" s="71" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="J106" s="71"/>
       <c r="K106" s="71" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="L106" s="71" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="M106" s="71" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="N106" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="O106" s="71" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="P106" s="71" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="Q106" s="71"/>
       <c r="R106" s="71" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="S106" s="31"/>
       <c r="V106" s="7"/>
@@ -14572,44 +14527,44 @@
     <row r="108" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B108" s="17"/>
       <c r="D108" s="70" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E108" s="70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="F108" s="70" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="G108" s="70" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="H108" s="70" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="I108" s="70" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="J108" s="70" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="K108" s="70"/>
       <c r="L108" s="70" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="M108" s="70" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="N108" s="70" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="O108" s="70" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="P108" s="70" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="Q108" s="70" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="R108" s="70"/>
       <c r="S108" s="19"/>
@@ -14671,44 +14626,44 @@
     <row r="110" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B110" s="22"/>
       <c r="D110" s="71" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="F110" s="71" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="G110" s="71" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="H110" s="71" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="I110" s="71" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="J110" s="71" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="K110" s="71"/>
       <c r="L110" s="71" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="M110" s="71" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="N110" s="71" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="O110" s="71" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="P110" s="71" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="Q110" s="71" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="R110" s="71"/>
       <c r="S110" s="31"/>
@@ -14737,42 +14692,42 @@
     <row r="112" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B112" s="17"/>
       <c r="D112" s="70" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E112" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="F112" s="70" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="G112" s="70" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="H112" s="70"/>
       <c r="I112" s="70" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="J112" s="70" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="K112" s="70" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="L112" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="M112" s="70" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="N112" s="70" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="O112" s="70"/>
       <c r="P112" s="70" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="Q112" s="70" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="R112" s="70"/>
       <c r="S112" s="19"/>
@@ -14834,42 +14789,42 @@
     <row r="114" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B114" s="22"/>
       <c r="D114" s="71" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E114" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="F114" s="71" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="G114" s="71" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="H114" s="71"/>
       <c r="I114" s="71" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="J114" s="71" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="K114" s="71" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="L114" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="M114" s="71" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="N114" s="71" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="O114" s="71"/>
       <c r="P114" s="71" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="Q114" s="71" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="R114" s="71"/>
       <c r="S114" s="31"/>
@@ -14898,45 +14853,45 @@
     <row r="116" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B116" s="17"/>
       <c r="D116" s="70" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="E116" s="70" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="F116" s="70" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="G116" s="70" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="H116" s="70" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="I116" s="70"/>
       <c r="J116" s="70" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="K116" s="70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="L116" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="M116" s="70" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="N116" s="70"/>
       <c r="O116" s="70" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="P116" s="70" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="Q116" s="70" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="R116" s="70" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="S116" s="19"/>
       <c r="V116" s="7"/>
@@ -14997,45 +14952,45 @@
     <row r="118" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B118" s="22"/>
       <c r="D118" s="71" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E118" s="71" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F118" s="71" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="G118" s="71" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="H118" s="71" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="I118" s="71"/>
       <c r="J118" s="71" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="K118" s="71" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="L118" s="71" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="M118" s="71" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="N118" s="71"/>
       <c r="O118" s="71" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="P118" s="71" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="Q118" s="71" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="R118" s="71" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="S118" s="31"/>
       <c r="V118" s="7"/>
@@ -15063,43 +15018,43 @@
     <row r="120" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B120" s="17"/>
       <c r="D120" s="70" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="E120" s="70"/>
       <c r="F120" s="70" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="G120" s="70" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="H120" s="70" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="I120" s="70" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="J120" s="70"/>
       <c r="K120" s="70" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="L120" s="70" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="M120" s="70" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="N120" s="70" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="O120" s="70"/>
       <c r="P120" s="70" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="Q120" s="70" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="R120" s="70" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="S120" s="19"/>
       <c r="V120" s="7"/>
@@ -15160,43 +15115,43 @@
     <row r="122" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B122" s="22"/>
       <c r="D122" s="71" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="E122" s="71"/>
       <c r="F122" s="71" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="G122" s="71" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="H122" s="71" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="I122" s="71" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="J122" s="71"/>
       <c r="K122" s="71" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="L122" s="71" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="M122" s="71" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="N122" s="71" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="O122" s="71"/>
       <c r="P122" s="71" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="Q122" s="71" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="R122" s="71" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="S122" s="31"/>
       <c r="V122" s="7"/>
@@ -15224,29 +15179,29 @@
     <row r="124" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B124" s="17"/>
       <c r="D124" s="70" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="E124" s="70"/>
       <c r="F124" s="70" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="G124" s="70" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="H124" s="70" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="I124" s="70" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="J124" s="70" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="K124" s="70" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="L124" s="70" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="M124" s="70"/>
       <c r="N124" s="70"/>
@@ -15307,29 +15262,29 @@
     <row r="126" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B126" s="22"/>
       <c r="D126" s="71" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="E126" s="71"/>
       <c r="F126" s="71" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="G126" s="71" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="H126" s="71" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="I126" s="71" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="J126" s="71" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="K126" s="71" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="L126" s="71" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="M126" s="71"/>
       <c r="N126" s="71"/>
@@ -22831,7 +22786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B312FE-EC53-4DD9-A04B-BC6FC3AE5E1F}">
   <dimension ref="A1:V482"/>
   <sheetViews>
@@ -33752,7 +33707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599EB3AF-39AD-443E-BF4E-41B1F014306B}">
   <dimension ref="A1:E47"/>
   <sheetViews>
@@ -34567,7 +34522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V242"/>
   <sheetViews>
@@ -42158,7 +42113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -42327,7 +42282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
